--- a/tests/test1/d30/N, 1.0.xlsx
+++ b/tests/test1/d30/N, 1.0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -532,13 +532,13 @@
         <v>358.2359476540324</v>
       </c>
       <c r="F2" t="n">
-        <v>10.55920472975007</v>
+        <v>10.55920472975176</v>
       </c>
       <c r="G2" t="n">
-        <v>78.1963350743127</v>
+        <v>78.19633507431226</v>
       </c>
       <c r="H2" t="n">
-        <v>2.895425117154976</v>
+        <v>2.895425117156079</v>
       </c>
       <c r="I2" t="n">
         <v>30.54452539071436</v>
@@ -547,16 +547,16 @@
         <v>29.33066725219249</v>
       </c>
       <c r="K2" t="n">
-        <v>26.15098542122506</v>
+        <v>26.15098542122646</v>
       </c>
       <c r="L2" t="n">
-        <v>9.634842688601323</v>
+        <v>9.634842688603655</v>
       </c>
       <c r="M2" t="n">
-        <v>5.491792110590051</v>
+        <v>5.491792110587819</v>
       </c>
       <c r="N2" t="n">
-        <v>4.607350908081944</v>
+        <v>4.607350908081236</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003303999999957341</v>
+        <v>0.0002588999999986186</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>358.3756546363367</v>
       </c>
       <c r="F3" t="n">
-        <v>10.84919300617245</v>
+        <v>10.8491930061746</v>
       </c>
       <c r="G3" t="n">
-        <v>51.25340887580369</v>
+        <v>51.25340887580762</v>
       </c>
       <c r="H3" t="n">
-        <v>3.681400889279709</v>
+        <v>3.681400889281174</v>
       </c>
       <c r="I3" t="n">
         <v>25.33705432792731</v>
@@ -599,16 +599,16 @@
         <v>34.28275889914102</v>
       </c>
       <c r="K3" t="n">
-        <v>21.40044913266146</v>
+        <v>21.40044913266291</v>
       </c>
       <c r="L3" t="n">
-        <v>11.80748755219354</v>
+        <v>11.80748755219688</v>
       </c>
       <c r="M3" t="n">
-        <v>4.370449732353967</v>
+        <v>4.370449732351859</v>
       </c>
       <c r="N3" t="n">
-        <v>4.381642726853601</v>
+        <v>4.381642726852663</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0003306999999992399</v>
+        <v>0.0002216999999973268</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0.4167578474054766</v>
       </c>
       <c r="F4" t="n">
-        <v>18.08651652079415</v>
+        <v>18.08651652079462</v>
       </c>
       <c r="G4" t="n">
-        <v>181.4064751092205</v>
+        <v>181.4064751092192</v>
       </c>
       <c r="H4" t="n">
-        <v>4.691348343956049</v>
+        <v>4.691348343955917</v>
       </c>
       <c r="I4" t="n">
         <v>10.18789668310031</v>
@@ -651,16 +651,16 @@
         <v>28.62860242763599</v>
       </c>
       <c r="K4" t="n">
-        <v>6.744158073278178</v>
+        <v>6.744158073278534</v>
       </c>
       <c r="L4" t="n">
-        <v>9.910328804217555</v>
+        <v>9.910328804218187</v>
       </c>
       <c r="M4" t="n">
-        <v>2.461310513434896</v>
+        <v>2.461310513434649</v>
       </c>
       <c r="N4" t="n">
-        <v>5.565959646140388</v>
+        <v>5.565959646140132</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0005610000000046966</v>
+        <v>0.0003258000000059269</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>358.2113715265697</v>
       </c>
       <c r="F5" t="n">
-        <v>9.940198550284494</v>
+        <v>9.940198550284403</v>
       </c>
       <c r="G5" t="n">
-        <v>75.84135668015102</v>
+        <v>75.84135668015054</v>
       </c>
       <c r="H5" t="n">
-        <v>2.529104717346372</v>
+        <v>2.52910471734633</v>
       </c>
       <c r="I5" t="n">
         <v>30.42186793534146</v>
@@ -703,16 +703,16 @@
         <v>29.21316117156715</v>
       </c>
       <c r="K5" t="n">
-        <v>25.25549077883242</v>
+        <v>25.25549077883233</v>
       </c>
       <c r="L5" t="n">
-        <v>8.913347648604503</v>
+        <v>8.913347648604411</v>
       </c>
       <c r="M5" t="n">
-        <v>6.419016355907043</v>
+        <v>6.419016355907168</v>
       </c>
       <c r="N5" t="n">
-        <v>4.982382261708884</v>
+        <v>4.982382261708933</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.000510699999999531</v>
+        <v>0.0002044000000012147</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>359.9494382928571</v>
       </c>
       <c r="F6" t="n">
-        <v>20.8286723641957</v>
+        <v>20.82867236419542</v>
       </c>
       <c r="G6" t="n">
-        <v>182.5393961486539</v>
+        <v>182.5393961486541</v>
       </c>
       <c r="H6" t="n">
-        <v>8.34948406978679</v>
+        <v>8.349484069786589</v>
       </c>
       <c r="I6" t="n">
         <v>8.399717828514826</v>
@@ -755,16 +755,16 @@
         <v>16.13813378453141</v>
       </c>
       <c r="K6" t="n">
-        <v>4.934162474080154</v>
+        <v>4.934162474080039</v>
       </c>
       <c r="L6" t="n">
-        <v>8.233270937157616</v>
+        <v>8.233270937157577</v>
       </c>
       <c r="M6" t="n">
-        <v>1.859375704405642</v>
+        <v>1.859375704405703</v>
       </c>
       <c r="N6" t="n">
-        <v>2.21272113650911</v>
+        <v>2.2127211365092</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003310999999968089</v>
+        <v>0.0001893000000023903</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>359.5587725131149</v>
       </c>
       <c r="F7" t="n">
-        <v>13.05061982712404</v>
+        <v>13.05061982712493</v>
       </c>
       <c r="G7" t="n">
-        <v>31.06752854886303</v>
+        <v>31.0675285488635</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75246979664227</v>
+        <v>3.7524697966431</v>
       </c>
       <c r="I7" t="n">
         <v>16.18089193105339</v>
@@ -807,16 +807,16 @@
         <v>41.39368334310793</v>
       </c>
       <c r="K7" t="n">
-        <v>13.35871554493615</v>
+        <v>13.35871554493664</v>
       </c>
       <c r="L7" t="n">
-        <v>14.68835614837885</v>
+        <v>14.68835614838065</v>
       </c>
       <c r="M7" t="n">
-        <v>2.77879403337066</v>
+        <v>2.778794033370099</v>
       </c>
       <c r="N7" t="n">
-        <v>3.805534932574839</v>
+        <v>3.805534932574479</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0005245999999985429</v>
+        <v>0.0002433999999951197</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0.3117836734875126</v>
       </c>
       <c r="F8" t="n">
-        <v>19.97205733224901</v>
+        <v>19.9720573322486</v>
       </c>
       <c r="G8" t="n">
-        <v>180.7514705031039</v>
+        <v>180.751470503104</v>
       </c>
       <c r="H8" t="n">
-        <v>7.626956051482326</v>
+        <v>7.626956051481923</v>
       </c>
       <c r="I8" t="n">
         <v>11.43325161517759</v>
@@ -859,16 +859,16 @@
         <v>19.8676358558312</v>
       </c>
       <c r="K8" t="n">
-        <v>8.04194294554951</v>
+        <v>8.041942945549357</v>
       </c>
       <c r="L8" t="n">
-        <v>8.285317525870024</v>
+        <v>8.28531752587009</v>
       </c>
       <c r="M8" t="n">
-        <v>1.877957476845419</v>
+        <v>1.877957476845494</v>
       </c>
       <c r="N8" t="n">
-        <v>2.550614811077295</v>
+        <v>2.55061481107719</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0004932000000010817</v>
+        <v>0.0002003999999971029</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>358.3094742961997</v>
       </c>
       <c r="F9" t="n">
-        <v>9.889630332539177</v>
+        <v>9.889630332539193</v>
       </c>
       <c r="G9" t="n">
-        <v>2.039078433411483</v>
+        <v>2.03907843341147</v>
       </c>
       <c r="H9" t="n">
-        <v>9.827289158931126</v>
+        <v>9.827289158931064</v>
       </c>
       <c r="I9" t="n">
         <v>6.405887000684803</v>
@@ -911,16 +911,16 @@
         <v>42.05289827013716</v>
       </c>
       <c r="K9" t="n">
-        <v>3.897940022133145</v>
+        <v>3.897940022133133</v>
       </c>
       <c r="L9" t="n">
-        <v>19.09842306810811</v>
+        <v>19.09842306810805</v>
       </c>
       <c r="M9" t="n">
-        <v>2.970581143632928</v>
+        <v>2.970581143632938</v>
       </c>
       <c r="N9" t="n">
-        <v>2.341266121421845</v>
+        <v>2.341266121421861</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003677999999993631</v>
+        <v>0.0002114999999989209</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>359.9087952833802</v>
       </c>
       <c r="F10" t="n">
-        <v>16.53879548313746</v>
+        <v>16.53879548313663</v>
       </c>
       <c r="G10" t="n">
-        <v>167.609200051802</v>
+        <v>167.6092000518039</v>
       </c>
       <c r="H10" t="n">
-        <v>7.5802098598748</v>
+        <v>7.580209859874471</v>
       </c>
       <c r="I10" t="n">
         <v>35.40628251682527</v>
@@ -963,16 +963,16 @@
         <v>13.7482000025743</v>
       </c>
       <c r="K10" t="n">
-        <v>31.57164040643345</v>
+        <v>31.57164040643299</v>
       </c>
       <c r="L10" t="n">
-        <v>5.913290151753875</v>
+        <v>5.913290151753253</v>
       </c>
       <c r="M10" t="n">
-        <v>2.762418494312851</v>
+        <v>2.762418494313254</v>
       </c>
       <c r="N10" t="n">
-        <v>3.372283624925384</v>
+        <v>3.372283624925676</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.000454399999995303</v>
+        <v>0.000193899999999303</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>359.9988914452878</v>
       </c>
       <c r="F11" t="n">
-        <v>17.32692305577336</v>
+        <v>17.32692305577298</v>
       </c>
       <c r="G11" t="n">
-        <v>235.1760570502917</v>
+        <v>235.1760570503095</v>
       </c>
       <c r="H11" t="n">
-        <v>1.468708717530017</v>
+        <v>1.46870871752969</v>
       </c>
       <c r="I11" t="n">
         <v>2.283217732932411</v>
@@ -1015,16 +1015,16 @@
         <v>38.23523664126705</v>
       </c>
       <c r="K11" t="n">
-        <v>358.8433151624542</v>
+        <v>358.8433151624544</v>
       </c>
       <c r="L11" t="n">
-        <v>13.7068945503599</v>
+        <v>13.70689455036019</v>
       </c>
       <c r="M11" t="n">
-        <v>2.497810430237975</v>
+        <v>2.497810430237955</v>
       </c>
       <c r="N11" t="n">
-        <v>7.189486187118396</v>
+        <v>7.189486187118029</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0004148000000014918</v>
+        <v>0.0001953000000014526</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>358.6684134958705</v>
       </c>
       <c r="F12" t="n">
-        <v>14.9715546734863</v>
+        <v>14.97155467348655</v>
       </c>
       <c r="G12" t="n">
-        <v>18.01538988398318</v>
+        <v>18.01538988398368</v>
       </c>
       <c r="H12" t="n">
-        <v>2.347426159630062</v>
+        <v>2.347426159630251</v>
       </c>
       <c r="I12" t="n">
         <v>8.689710829394025</v>
@@ -1067,16 +1067,16 @@
         <v>24.73231265962071</v>
       </c>
       <c r="K12" t="n">
-        <v>6.429556312479811</v>
+        <v>6.42955631247995</v>
       </c>
       <c r="L12" t="n">
-        <v>15.12508965668192</v>
+        <v>15.12508965668238</v>
       </c>
       <c r="M12" t="n">
-        <v>2.220758704676205</v>
+        <v>2.220758704676099</v>
       </c>
       <c r="N12" t="n">
-        <v>4.926755287992666</v>
+        <v>4.926755287992439</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003334999999964339</v>
+        <v>0.0002454000000042811</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>358.2505452586948</v>
       </c>
       <c r="F13" t="n">
-        <v>10.90051608230681</v>
+        <v>10.90051608230701</v>
       </c>
       <c r="G13" t="n">
-        <v>1.802929541994806</v>
+        <v>1.802929541995086</v>
       </c>
       <c r="H13" t="n">
-        <v>8.037786033776007</v>
+        <v>8.037786033776028</v>
       </c>
       <c r="I13" t="n">
         <v>6.055750253915085</v>
@@ -1119,16 +1119,16 @@
         <v>30.83028323690103</v>
       </c>
       <c r="K13" t="n">
-        <v>3.643707282841961</v>
+        <v>3.64370728284205</v>
       </c>
       <c r="L13" t="n">
-        <v>17.95593824024335</v>
+        <v>17.95593824024358</v>
       </c>
       <c r="M13" t="n">
-        <v>2.700954330991397</v>
+        <v>2.700954330991325</v>
       </c>
       <c r="N13" t="n">
-        <v>5.779203250054502</v>
+        <v>5.779203250054477</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.00104310000000396</v>
+        <v>0.0001910000000009404</v>
       </c>
     </row>
     <row r="14">
@@ -1159,10 +1159,10 @@
         <v>12.9168002637873</v>
       </c>
       <c r="G14" t="n">
-        <v>13.04588192256439</v>
+        <v>13.04588192256424</v>
       </c>
       <c r="H14" t="n">
-        <v>3.556881707043186</v>
+        <v>3.556881707043396</v>
       </c>
       <c r="I14" t="n">
         <v>11.04565230035812</v>
@@ -1171,16 +1171,16 @@
         <v>40.75574104258677</v>
       </c>
       <c r="K14" t="n">
-        <v>7.981937451923195</v>
+        <v>7.981937451923233</v>
       </c>
       <c r="L14" t="n">
-        <v>14.59953213884383</v>
+        <v>14.59953213884408</v>
       </c>
       <c r="M14" t="n">
-        <v>3.131020541357663</v>
+        <v>3.131020541357599</v>
       </c>
       <c r="N14" t="n">
-        <v>3.954682884388675</v>
+        <v>3.954682884388617</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003296999999946593</v>
+        <v>0.000193899999999303</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0.7123906620505903</v>
       </c>
       <c r="F15" t="n">
-        <v>19.13343797725068</v>
+        <v>19.13343797725073</v>
       </c>
       <c r="G15" t="n">
         <v>177.856916050603</v>
       </c>
       <c r="H15" t="n">
-        <v>6.655150575027123</v>
+        <v>6.655150575027167</v>
       </c>
       <c r="I15" t="n">
         <v>14.48335361376716</v>
@@ -1226,13 +1226,13 @@
         <v>11.30986084012571</v>
       </c>
       <c r="L15" t="n">
-        <v>8.704025924935479</v>
+        <v>8.704025924935477</v>
       </c>
       <c r="M15" t="n">
-        <v>1.891839154966708</v>
+        <v>1.891839154966699</v>
       </c>
       <c r="N15" t="n">
-        <v>3.112394409808736</v>
+        <v>3.112394409808755</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003146000000029403</v>
+        <v>0.0001940000000004716</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>358.448660888747</v>
       </c>
       <c r="F16" t="n">
-        <v>10.04544756284326</v>
+        <v>10.04544756284353</v>
       </c>
       <c r="G16" t="n">
-        <v>68.29629114074834</v>
+        <v>68.29629114074928</v>
       </c>
       <c r="H16" t="n">
-        <v>3.03323079095017</v>
+        <v>3.033230790950317</v>
       </c>
       <c r="I16" t="n">
         <v>30.72180748031497</v>
@@ -1275,16 +1275,16 @@
         <v>31.10359375652314</v>
       </c>
       <c r="K16" t="n">
-        <v>26.01168109888606</v>
+        <v>26.01168109888629</v>
       </c>
       <c r="L16" t="n">
-        <v>9.760108253708083</v>
+        <v>9.760108253708406</v>
       </c>
       <c r="M16" t="n">
-        <v>5.750088652179151</v>
+        <v>5.750088652178811</v>
       </c>
       <c r="N16" t="n">
-        <v>4.808930743584765</v>
+        <v>4.808930743584638</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0003535000000027821</v>
+        <v>0.0001953000000014526</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0.3123284815435487</v>
       </c>
       <c r="F17" t="n">
-        <v>19.22284625246756</v>
+        <v>19.22284625246815</v>
       </c>
       <c r="G17" t="n">
-        <v>181.4071322394661</v>
+        <v>181.4071322394656</v>
       </c>
       <c r="H17" t="n">
-        <v>6.349844039537588</v>
+        <v>6.349844039537956</v>
       </c>
       <c r="I17" t="n">
         <v>10.34172524231339</v>
@@ -1327,16 +1327,16 @@
         <v>22.25264734341951</v>
       </c>
       <c r="K17" t="n">
-        <v>6.902345849833729</v>
+        <v>6.902345849833983</v>
       </c>
       <c r="L17" t="n">
-        <v>9.054304927225202</v>
+        <v>9.054304927225349</v>
       </c>
       <c r="M17" t="n">
-        <v>2.126930565322963</v>
+        <v>2.126930565322815</v>
       </c>
       <c r="N17" t="n">
-        <v>3.148260148786913</v>
+        <v>3.148260148787004</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0004971000000040249</v>
+        <v>0.000237099999999657</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>359.872051278866</v>
       </c>
       <c r="F18" t="n">
-        <v>15.89549503108152</v>
+        <v>15.89549503108149</v>
       </c>
       <c r="G18" t="n">
-        <v>41.83938995711486</v>
+        <v>41.83938995711539</v>
       </c>
       <c r="H18" t="n">
-        <v>2.248009971480231</v>
+        <v>2.248009971480184</v>
       </c>
       <c r="I18" t="n">
         <v>13.10617957966178</v>
@@ -1379,16 +1379,16 @@
         <v>36.84819385366504</v>
       </c>
       <c r="K18" t="n">
-        <v>10.86463718100434</v>
+        <v>10.86463718100432</v>
       </c>
       <c r="L18" t="n">
-        <v>15.56791246674479</v>
+        <v>15.5679124667447</v>
       </c>
       <c r="M18" t="n">
-        <v>1.686621615404321</v>
+        <v>1.686621615404335</v>
       </c>
       <c r="N18" t="n">
-        <v>3.458341534245343</v>
+        <v>3.458341534245373</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003263999999987277</v>
+        <v>0.0001930999999970595</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>359.7237341099787</v>
       </c>
       <c r="F19" t="n">
-        <v>14.01539522051871</v>
+        <v>14.01539522051849</v>
       </c>
       <c r="G19" t="n">
-        <v>49.5598760922834</v>
+        <v>49.55987609228501</v>
       </c>
       <c r="H19" t="n">
-        <v>2.29153758518027</v>
+        <v>2.291537585180061</v>
       </c>
       <c r="I19" t="n">
         <v>16.55986375037994</v>
@@ -1431,16 +1431,16 @@
         <v>35.61949574546529</v>
       </c>
       <c r="K19" t="n">
-        <v>13.62685569421533</v>
+        <v>13.6268556942152</v>
       </c>
       <c r="L19" t="n">
-        <v>13.5643937002374</v>
+        <v>13.56439370023693</v>
       </c>
       <c r="M19" t="n">
-        <v>2.548533369619387</v>
+        <v>2.548533369619524</v>
       </c>
       <c r="N19" t="n">
-        <v>3.740628803938186</v>
+        <v>3.740628803938259</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003475000000037198</v>
+        <v>0.0001968999999988341</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>359.9205715561937</v>
       </c>
       <c r="F20" t="n">
-        <v>15.56564611348976</v>
+        <v>15.56564611348854</v>
       </c>
       <c r="G20" t="n">
-        <v>139.4020672843743</v>
+        <v>139.4020672843759</v>
       </c>
       <c r="H20" t="n">
-        <v>3.736396892253209</v>
+        <v>3.736396892252705</v>
       </c>
       <c r="I20" t="n">
         <v>25.82629642817216</v>
@@ -1483,16 +1483,16 @@
         <v>24.92281376836615</v>
       </c>
       <c r="K20" t="n">
-        <v>23.07661281327468</v>
+        <v>23.07661281327403</v>
       </c>
       <c r="L20" t="n">
-        <v>10.37503033710903</v>
+        <v>10.37503033710806</v>
       </c>
       <c r="M20" t="n">
-        <v>2.352548266748734</v>
+        <v>2.352548266749178</v>
       </c>
       <c r="N20" t="n">
-        <v>3.688248522478252</v>
+        <v>3.688248522478653</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003469999999978768</v>
+        <v>0.0001930000000029963</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>359.7789967373178</v>
       </c>
       <c r="F21" t="n">
-        <v>14.59721598229788</v>
+        <v>14.59721598229799</v>
       </c>
       <c r="G21" t="n">
-        <v>3.69618538500303</v>
+        <v>3.696185385003094</v>
       </c>
       <c r="H21" t="n">
-        <v>2.959365493874975</v>
+        <v>2.959365493874777</v>
       </c>
       <c r="I21" t="n">
         <v>7.677292830157072</v>
@@ -1538,13 +1538,13 @@
         <v>4.944531984915041</v>
       </c>
       <c r="L21" t="n">
-        <v>15.5825855500221</v>
+        <v>15.58258555002197</v>
       </c>
       <c r="M21" t="n">
-        <v>2.35096025100923</v>
+        <v>2.350960251009241</v>
       </c>
       <c r="N21" t="n">
-        <v>3.96298445296802</v>
+        <v>3.962984452968064</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0005894000000026267</v>
+        <v>0.0002208000000010202</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>359.1161068873827</v>
       </c>
       <c r="F22" t="n">
-        <v>12.75712702278437</v>
+        <v>12.75712702278151</v>
       </c>
       <c r="G22" t="n">
-        <v>101.2683817444429</v>
+        <v>101.2683817444442</v>
       </c>
       <c r="H22" t="n">
-        <v>4.295516184350053</v>
+        <v>4.295516184348307</v>
       </c>
       <c r="I22" t="n">
         <v>36.73913688060643</v>
@@ -1587,16 +1587,16 @@
         <v>28.53374266718802</v>
       </c>
       <c r="K22" t="n">
-        <v>33.43261705568493</v>
+        <v>33.43261705568344</v>
       </c>
       <c r="L22" t="n">
-        <v>10.94263917725682</v>
+        <v>10.94263917725356</v>
       </c>
       <c r="M22" t="n">
-        <v>3.028119935121322</v>
+        <v>3.028119935122904</v>
       </c>
       <c r="N22" t="n">
-        <v>3.689288643594745</v>
+        <v>3.689288643595588</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003393000000002644</v>
+        <v>0.0002478999999979692</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0.05196424950553487</v>
       </c>
       <c r="F23" t="n">
-        <v>18.19693924277925</v>
+        <v>18.19693924277935</v>
       </c>
       <c r="G23" t="n">
-        <v>198.3764706935373</v>
+        <v>198.3764706935362</v>
       </c>
       <c r="H23" t="n">
-        <v>2.928761143556453</v>
+        <v>2.928761143556637</v>
       </c>
       <c r="I23" t="n">
         <v>3.841879221367843</v>
@@ -1639,16 +1639,16 @@
         <v>35.13499912840096</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3695181064142529</v>
+        <v>0.3695181064142274</v>
       </c>
       <c r="L23" t="n">
-        <v>12.24553122709042</v>
+        <v>12.24553122709029</v>
       </c>
       <c r="M23" t="n">
-        <v>2.672074734224301</v>
+        <v>2.672074734224319</v>
       </c>
       <c r="N23" t="n">
-        <v>7.581937779544114</v>
+        <v>7.581937779544083</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.000309000000001447</v>
+        <v>0.0002944000000013602</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0.09194991986519468</v>
       </c>
       <c r="F24" t="n">
-        <v>15.27627026729856</v>
+        <v>15.27627026729917</v>
       </c>
       <c r="G24" t="n">
-        <v>151.9643753581548</v>
+        <v>151.9643753581475</v>
       </c>
       <c r="H24" t="n">
-        <v>1.018444209222979</v>
+        <v>1.018444209223032</v>
       </c>
       <c r="I24" t="n">
         <v>11.9862826901246</v>
@@ -1691,16 +1691,16 @@
         <v>36.5366037130493</v>
       </c>
       <c r="K24" t="n">
-        <v>8.686609536060681</v>
+        <v>8.686609536061024</v>
       </c>
       <c r="L24" t="n">
-        <v>11.71555226694718</v>
+        <v>11.71555226694783</v>
       </c>
       <c r="M24" t="n">
-        <v>2.918384027781941</v>
+        <v>2.918384027781645</v>
       </c>
       <c r="N24" t="n">
-        <v>7.028217032077171</v>
+        <v>7.028217032076858</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003540000000015198</v>
+        <v>0.0002068000000008396</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>359.3330119436465</v>
       </c>
       <c r="F25" t="n">
-        <v>12.92223273014259</v>
+        <v>12.92223273014141</v>
       </c>
       <c r="G25" t="n">
-        <v>87.750471261469</v>
+        <v>87.7504712614688</v>
       </c>
       <c r="H25" t="n">
-        <v>4.646897177428856</v>
+        <v>4.646897177428109</v>
       </c>
       <c r="I25" t="n">
         <v>34.79974963322789</v>
@@ -1743,16 +1743,16 @@
         <v>32.20772710025805</v>
       </c>
       <c r="K25" t="n">
-        <v>32.06245681283595</v>
+        <v>32.0624568128354</v>
       </c>
       <c r="L25" t="n">
-        <v>12.41798906196654</v>
+        <v>12.41798906196506</v>
       </c>
       <c r="M25" t="n">
-        <v>2.615909182431966</v>
+        <v>2.615909182432513</v>
       </c>
       <c r="N25" t="n">
-        <v>3.533669528572171</v>
+        <v>3.533669528572525</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003022999999942044</v>
+        <v>0.0001929999999958909</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>358.6707878273508</v>
       </c>
       <c r="F26" t="n">
-        <v>16.86568157110603</v>
+        <v>16.865681571105</v>
       </c>
       <c r="G26" t="n">
-        <v>167.203396863768</v>
+        <v>167.2033968637719</v>
       </c>
       <c r="H26" t="n">
-        <v>3.268106952602218</v>
+        <v>3.268106952602115</v>
       </c>
       <c r="I26" t="n">
         <v>11.78642545097189</v>
@@ -1795,16 +1795,16 @@
         <v>14.11601099751434</v>
       </c>
       <c r="K26" t="n">
-        <v>8.986096181122127</v>
+        <v>8.986096181121543</v>
       </c>
       <c r="L26" t="n">
-        <v>10.54994553082331</v>
+        <v>10.54994553082232</v>
       </c>
       <c r="M26" t="n">
-        <v>2.340230551490275</v>
+        <v>2.340230551490671</v>
       </c>
       <c r="N26" t="n">
-        <v>3.044059469276056</v>
+        <v>3.044059469276249</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0002917999999993981</v>
+        <v>0.0001913999999985094</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>359.7717269103339</v>
       </c>
       <c r="F27" t="n">
-        <v>17.42477153249631</v>
+        <v>17.4247715324967</v>
       </c>
       <c r="G27" t="n">
-        <v>170.2746062657762</v>
+        <v>170.2746062657759</v>
       </c>
       <c r="H27" t="n">
-        <v>5.931385662337663</v>
+        <v>5.931385662337876</v>
       </c>
       <c r="I27" t="n">
         <v>19.88592121432799</v>
@@ -1847,16 +1847,16 @@
         <v>17.42150158735378</v>
       </c>
       <c r="K27" t="n">
-        <v>16.46640343639825</v>
+        <v>16.46640343639848</v>
       </c>
       <c r="L27" t="n">
-        <v>8.126184507080266</v>
+        <v>8.126184507080424</v>
       </c>
       <c r="M27" t="n">
-        <v>2.574065650114342</v>
+        <v>2.574065650114191</v>
       </c>
       <c r="N27" t="n">
-        <v>3.100714567956746</v>
+        <v>3.100714567956614</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0005926999999985583</v>
+        <v>0.000247800000003906</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>359.80400678834</v>
       </c>
       <c r="F28" t="n">
-        <v>14.72751872624926</v>
+        <v>14.72751872624937</v>
       </c>
       <c r="G28" t="n">
-        <v>61.99505191617224</v>
+        <v>61.9950519161698</v>
       </c>
       <c r="H28" t="n">
-        <v>2.175906646809376</v>
+        <v>2.175906646809509</v>
       </c>
       <c r="I28" t="n">
         <v>16.99876366455218</v>
@@ -1899,16 +1899,16 @@
         <v>35.20863709983118</v>
       </c>
       <c r="K28" t="n">
-        <v>14.40418322274339</v>
+        <v>14.40418322274345</v>
       </c>
       <c r="L28" t="n">
-        <v>13.76995938448094</v>
+        <v>13.76995938448124</v>
       </c>
       <c r="M28" t="n">
-        <v>2.317539516201894</v>
+        <v>2.317539516201822</v>
       </c>
       <c r="N28" t="n">
-        <v>3.738469059238077</v>
+        <v>3.738469059237952</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003150000000005093</v>
+        <v>0.0002265999999977453</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>358.7143945847677</v>
       </c>
       <c r="F29" t="n">
-        <v>11.08340049632886</v>
+        <v>11.08340049632839</v>
       </c>
       <c r="G29" t="n">
-        <v>59.49980763648121</v>
+        <v>59.49980763648173</v>
       </c>
       <c r="H29" t="n">
-        <v>3.690138507419134</v>
+        <v>3.690138507418711</v>
       </c>
       <c r="I29" t="n">
         <v>27.47750858341173</v>
@@ -1951,16 +1951,16 @@
         <v>34.86118304053818</v>
       </c>
       <c r="K29" t="n">
-        <v>23.85720608501111</v>
+        <v>23.85720608501081</v>
       </c>
       <c r="L29" t="n">
-        <v>11.7124830227255</v>
+        <v>11.71248302272464</v>
       </c>
       <c r="M29" t="n">
-        <v>4.118763780896523</v>
+        <v>4.11876378089702</v>
       </c>
       <c r="N29" t="n">
-        <v>4.217894923444261</v>
+        <v>4.217894923444442</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003104999999976599</v>
+        <v>0.0002866000000025792</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>359.55366762213</v>
       </c>
       <c r="F30" t="n">
-        <v>16.10808541772923</v>
+        <v>16.10808541772887</v>
       </c>
       <c r="G30" t="n">
-        <v>140.9551153196097</v>
+        <v>140.9551153196072</v>
       </c>
       <c r="H30" t="n">
-        <v>4.247492250868945</v>
+        <v>4.24749225086867</v>
       </c>
       <c r="I30" t="n">
         <v>26.83056082492117</v>
@@ -2003,16 +2003,16 @@
         <v>22.06038522110382</v>
       </c>
       <c r="K30" t="n">
-        <v>24.05771146079889</v>
+        <v>24.05771146079865</v>
       </c>
       <c r="L30" t="n">
-        <v>10.43946326347852</v>
+        <v>10.43946326347855</v>
       </c>
       <c r="M30" t="n">
-        <v>2.223168263613987</v>
+        <v>2.223168263614069</v>
       </c>
       <c r="N30" t="n">
-        <v>3.223698762667481</v>
+        <v>3.223698762667543</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.001066299999997966</v>
+        <v>0.0002307000000030257</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0.417482126304551</v>
       </c>
       <c r="F31" t="n">
-        <v>18.89360993903593</v>
+        <v>18.89360993903581</v>
       </c>
       <c r="G31" t="n">
-        <v>180.8788109719277</v>
+        <v>180.8788109719275</v>
       </c>
       <c r="H31" t="n">
-        <v>6.804245275134504</v>
+        <v>6.804245275134212</v>
       </c>
       <c r="I31" t="n">
         <v>12.09819807108279</v>
@@ -2055,16 +2055,16 @@
         <v>20.83865222468982</v>
       </c>
       <c r="K31" t="n">
-        <v>8.295750177003232</v>
+        <v>8.295750177003256</v>
       </c>
       <c r="L31" t="n">
-        <v>8.198395986224579</v>
+        <v>8.198395986224812</v>
       </c>
       <c r="M31" t="n">
-        <v>2.366051026803372</v>
+        <v>2.366051026803346</v>
       </c>
       <c r="N31" t="n">
-        <v>2.746718724914673</v>
+        <v>2.746718724914527</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003568000000058191</v>
+        <v>0.0005689000000046462</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>1.2640526647764</v>
       </c>
       <c r="F32" t="n">
-        <v>16.0580219736255</v>
+        <v>16.0580219736249</v>
       </c>
       <c r="G32" t="n">
-        <v>171.8759328222983</v>
+        <v>171.8759328222989</v>
       </c>
       <c r="H32" t="n">
-        <v>5.100368353046628</v>
+        <v>5.100368353046303</v>
       </c>
       <c r="I32" t="n">
         <v>21.74625583611728</v>
@@ -2107,16 +2107,16 @@
         <v>25.20335661415189</v>
       </c>
       <c r="K32" t="n">
-        <v>17.94465991736646</v>
+        <v>17.94465991736603</v>
       </c>
       <c r="L32" t="n">
-        <v>7.756027617434288</v>
+        <v>7.756027617434035</v>
       </c>
       <c r="M32" t="n">
-        <v>2.45902517740286</v>
+        <v>2.459025177403108</v>
       </c>
       <c r="N32" t="n">
-        <v>4.317793307113597</v>
+        <v>4.317793307113842</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003000999999969167</v>
+        <v>0.0002219999999937272</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0.4147572142515962</v>
       </c>
       <c r="F33" t="n">
-        <v>13.16754105007064</v>
+        <v>13.16754105006977</v>
       </c>
       <c r="G33" t="n">
-        <v>50.59538720561024</v>
+        <v>50.59538720561167</v>
       </c>
       <c r="H33" t="n">
-        <v>3.229220835916168</v>
+        <v>3.229220835915456</v>
       </c>
       <c r="I33" t="n">
         <v>21.14835897576047</v>
@@ -2159,16 +2159,16 @@
         <v>40.97552889614518</v>
       </c>
       <c r="K33" t="n">
-        <v>18.12949784748349</v>
+        <v>18.12949784748303</v>
       </c>
       <c r="L33" t="n">
-        <v>13.69034478917711</v>
+        <v>13.6903447891755</v>
       </c>
       <c r="M33" t="n">
-        <v>2.509822146471018</v>
+        <v>2.509822146471504</v>
       </c>
       <c r="N33" t="n">
-        <v>3.830021844873543</v>
+        <v>3.830021844873809</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003178999999988719</v>
+        <v>0.0002096999999992022</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0.3488944509894297</v>
       </c>
       <c r="F34" t="n">
-        <v>18.53276575386897</v>
+        <v>18.53276575386874</v>
       </c>
       <c r="G34" t="n">
-        <v>178.6213544222503</v>
+        <v>178.6213544222509</v>
       </c>
       <c r="H34" t="n">
-        <v>6.866255774912552</v>
+        <v>6.866255774912596</v>
       </c>
       <c r="I34" t="n">
         <v>14.58268277756131</v>
@@ -2211,16 +2211,16 @@
         <v>19.92527519173688</v>
       </c>
       <c r="K34" t="n">
-        <v>10.92025024542663</v>
+        <v>10.92025024542644</v>
       </c>
       <c r="L34" t="n">
-        <v>7.820553875582298</v>
+        <v>7.820553875582008</v>
       </c>
       <c r="M34" t="n">
-        <v>2.225452488435165</v>
+        <v>2.225452488435283</v>
       </c>
       <c r="N34" t="n">
-        <v>2.731485556392085</v>
+        <v>2.731485556392159</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0006076000000021509</v>
+        <v>0.0002076000000030831</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0.3188535051081249</v>
       </c>
       <c r="F35" t="n">
-        <v>16.27693319661564</v>
+        <v>16.27693319661602</v>
       </c>
       <c r="G35" t="n">
-        <v>118.5785558409726</v>
+        <v>118.5785558409667</v>
       </c>
       <c r="H35" t="n">
-        <v>1.152595157183247</v>
+        <v>1.152595157183306</v>
       </c>
       <c r="I35" t="n">
         <v>13.45458804417072</v>
@@ -2263,16 +2263,16 @@
         <v>35.519141243874</v>
       </c>
       <c r="K35" t="n">
-        <v>10.78299391354624</v>
+        <v>10.78299391354641</v>
       </c>
       <c r="L35" t="n">
-        <v>13.23233334833637</v>
+        <v>13.23233334833686</v>
       </c>
       <c r="M35" t="n">
-        <v>2.01977488672505</v>
+        <v>2.019774886724924</v>
       </c>
       <c r="N35" t="n">
-        <v>5.7167856800338</v>
+        <v>5.716785680033567</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003343999999998459</v>
+        <v>0.000194800000002715</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>359.7561648993723</v>
       </c>
       <c r="F36" t="n">
-        <v>16.03544484991025</v>
+        <v>16.03544484991053</v>
       </c>
       <c r="G36" t="n">
-        <v>339.1118515087902</v>
+        <v>339.1118515087877</v>
       </c>
       <c r="H36" t="n">
-        <v>1.759527360490025</v>
+        <v>1.759527360489796</v>
       </c>
       <c r="I36" t="n">
         <v>4.025126671418751</v>
@@ -2315,16 +2315,16 @@
         <v>42.21249127823732</v>
       </c>
       <c r="K36" t="n">
-        <v>1.300399166375702</v>
+        <v>1.30039916637574</v>
       </c>
       <c r="L36" t="n">
-        <v>15.39556803283138</v>
+        <v>15.39556803283136</v>
       </c>
       <c r="M36" t="n">
-        <v>2.282091142848737</v>
+        <v>2.282091142848707</v>
       </c>
       <c r="N36" t="n">
-        <v>4.579863187000095</v>
+        <v>4.579863187000191</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0005394000000009669</v>
+        <v>0.0002381999999983009</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>1.889736710087848</v>
       </c>
       <c r="F37" t="n">
-        <v>15.27098818927973</v>
+        <v>15.27098818927992</v>
       </c>
       <c r="G37" t="n">
-        <v>183.7804241744962</v>
+        <v>183.7804241744956</v>
       </c>
       <c r="H37" t="n">
-        <v>5.795544820764189</v>
+        <v>5.79554482076413</v>
       </c>
       <c r="I37" t="n">
         <v>17.81803300985169</v>
@@ -2367,16 +2367,16 @@
         <v>29.87298333979204</v>
       </c>
       <c r="K37" t="n">
-        <v>12.02376049314615</v>
+        <v>12.02376049314648</v>
       </c>
       <c r="L37" t="n">
-        <v>5.834807706679949</v>
+        <v>5.83480770668022</v>
       </c>
       <c r="M37" t="n">
-        <v>4.400696017242272</v>
+        <v>4.400696017241974</v>
       </c>
       <c r="N37" t="n">
-        <v>5.660510178124111</v>
+        <v>5.660510178124017</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0003450000000029263</v>
+        <v>0.000214100000000883</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>359.3235867342455</v>
       </c>
       <c r="F38" t="n">
-        <v>14.50182036844848</v>
+        <v>14.501820368447</v>
       </c>
       <c r="G38" t="n">
-        <v>140.2682007580083</v>
+        <v>140.2682007580154</v>
       </c>
       <c r="H38" t="n">
-        <v>3.768451228526232</v>
+        <v>3.768451228525744</v>
       </c>
       <c r="I38" t="n">
         <v>28.31386058767408</v>
@@ -2419,16 +2419,16 @@
         <v>21.94213719690333</v>
       </c>
       <c r="K38" t="n">
-        <v>24.82995681248005</v>
+        <v>24.82995681247922</v>
       </c>
       <c r="L38" t="n">
-        <v>9.263007949762169</v>
+        <v>9.263007949760576</v>
       </c>
       <c r="M38" t="n">
-        <v>3.077215565604859</v>
+        <v>3.077215565605706</v>
       </c>
       <c r="N38" t="n">
-        <v>3.640582428388669</v>
+        <v>3.640582428389293</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003225000000028899</v>
+        <v>0.0001990999999961218</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0.05446361233749655</v>
       </c>
       <c r="F39" t="n">
-        <v>20.02002504159598</v>
+        <v>20.02002504159569</v>
       </c>
       <c r="G39" t="n">
-        <v>181.5648830199556</v>
+        <v>181.5648830199558</v>
       </c>
       <c r="H39" t="n">
-        <v>7.475879660454429</v>
+        <v>7.475879660454243</v>
       </c>
       <c r="I39" t="n">
         <v>9.715176392221503</v>
@@ -2471,16 +2471,16 @@
         <v>17.50763382333646</v>
       </c>
       <c r="K39" t="n">
-        <v>6.38827255724427</v>
+        <v>6.388272557244117</v>
       </c>
       <c r="L39" t="n">
-        <v>8.488652234953001</v>
+        <v>8.488652234952937</v>
       </c>
       <c r="M39" t="n">
-        <v>2.083903447850377</v>
+        <v>2.083903447850452</v>
       </c>
       <c r="N39" t="n">
-        <v>2.298151876689343</v>
+        <v>2.298151876689445</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0004783000000045945</v>
+        <v>0.0002020000000015898</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>358.9912943518833</v>
       </c>
       <c r="F40" t="n">
-        <v>11.39455527125584</v>
+        <v>11.39455527125621</v>
       </c>
       <c r="G40" t="n">
-        <v>56.21346895472335</v>
+        <v>56.21346895472329</v>
       </c>
       <c r="H40" t="n">
-        <v>3.703525409678193</v>
+        <v>3.703525409678488</v>
       </c>
       <c r="I40" t="n">
         <v>25.99804240757942</v>
@@ -2523,16 +2523,16 @@
         <v>36.76281015298541</v>
       </c>
       <c r="K40" t="n">
-        <v>22.5196072399779</v>
+        <v>22.51960723997813</v>
       </c>
       <c r="L40" t="n">
-        <v>12.17632771732501</v>
+        <v>12.17632771732564</v>
       </c>
       <c r="M40" t="n">
-        <v>3.807488208204757</v>
+        <v>3.807488208204429</v>
       </c>
       <c r="N40" t="n">
-        <v>4.115106663551463</v>
+        <v>4.115106663551325</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003206999999960658</v>
+        <v>0.0001947000000015464</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>358.5951604339781</v>
       </c>
       <c r="F41" t="n">
-        <v>11.05217189009874</v>
+        <v>11.05217189010088</v>
       </c>
       <c r="G41" t="n">
-        <v>82.84884546872586</v>
+        <v>82.84884546872782</v>
       </c>
       <c r="H41" t="n">
-        <v>3.307712793839963</v>
+        <v>3.307712793841258</v>
       </c>
       <c r="I41" t="n">
         <v>32.60101457491432</v>
@@ -2575,16 +2575,16 @@
         <v>29.87603008831807</v>
       </c>
       <c r="K41" t="n">
-        <v>28.45595187717939</v>
+        <v>28.45595187718093</v>
       </c>
       <c r="L41" t="n">
-        <v>10.15329309660443</v>
+        <v>10.15329309660709</v>
       </c>
       <c r="M41" t="n">
-        <v>4.546355047595582</v>
+        <v>4.546355047593509</v>
       </c>
       <c r="N41" t="n">
-        <v>4.368691914924552</v>
+        <v>4.368691914923708</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003020999999989726</v>
+        <v>0.0005315999999950805</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0.6075476972112318</v>
       </c>
       <c r="F42" t="n">
-        <v>18.25291124825281</v>
+        <v>18.25291124825242</v>
       </c>
       <c r="G42" t="n">
-        <v>180.853014289522</v>
+        <v>180.8530142895233</v>
       </c>
       <c r="H42" t="n">
-        <v>4.464347409326553</v>
+        <v>4.464347409326736</v>
       </c>
       <c r="I42" t="n">
         <v>10.64650715668175</v>
@@ -2627,16 +2627,16 @@
         <v>29.14275992229884</v>
       </c>
       <c r="K42" t="n">
-        <v>7.121623603332186</v>
+        <v>7.121623603331893</v>
       </c>
       <c r="L42" t="n">
-        <v>10.35881541132683</v>
+        <v>10.35881541132622</v>
       </c>
       <c r="M42" t="n">
-        <v>2.278412334655338</v>
+        <v>2.27841233465554</v>
       </c>
       <c r="N42" t="n">
-        <v>5.187965709511886</v>
+        <v>5.187965709512156</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003257000000047583</v>
+        <v>0.0002970000000033224</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0.2707123230673222</v>
       </c>
       <c r="F43" t="n">
-        <v>18.42559638517888</v>
+        <v>18.42559638517898</v>
       </c>
       <c r="G43" t="n">
-        <v>184.1124279159762</v>
+        <v>184.1124279159761</v>
       </c>
       <c r="H43" t="n">
-        <v>3.619098293939174</v>
+        <v>3.61909829393932</v>
       </c>
       <c r="I43" t="n">
         <v>7.857823052148743</v>
@@ -2682,13 +2682,13 @@
         <v>4.712193783481512</v>
       </c>
       <c r="L43" t="n">
-        <v>11.51621788221105</v>
+        <v>11.51621788221098</v>
       </c>
       <c r="M43" t="n">
-        <v>2.077002140434138</v>
+        <v>2.077002140434136</v>
       </c>
       <c r="N43" t="n">
-        <v>5.347477095603335</v>
+        <v>5.347477095603439</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003212000000019088</v>
+        <v>0.000237099999999657</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>359.5032858469888</v>
       </c>
       <c r="F44" t="n">
-        <v>12.51009297828456</v>
+        <v>12.51009297828593</v>
       </c>
       <c r="G44" t="n">
-        <v>60.74937635331232</v>
+        <v>60.74937635331315</v>
       </c>
       <c r="H44" t="n">
-        <v>4.218840055579489</v>
+        <v>4.218840055580405</v>
       </c>
       <c r="I44" t="n">
         <v>26.73093662596029</v>
@@ -2731,16 +2731,16 @@
         <v>38.09464111448521</v>
       </c>
       <c r="K44" t="n">
-        <v>23.8952650857514</v>
+        <v>23.89526508575205</v>
       </c>
       <c r="L44" t="n">
-        <v>13.52638772790046</v>
+        <v>13.52638772790253</v>
       </c>
       <c r="M44" t="n">
-        <v>2.837214251602734</v>
+        <v>2.837214251601981</v>
       </c>
       <c r="N44" t="n">
-        <v>3.718490159154705</v>
+        <v>3.71849015915427</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0002907999999948174</v>
+        <v>0.000236700000002088</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>359.7426000746553</v>
       </c>
       <c r="F45" t="n">
-        <v>14.85689626227929</v>
+        <v>14.85689626227934</v>
       </c>
       <c r="G45" t="n">
-        <v>5.738369175464968</v>
+        <v>5.738369175465083</v>
       </c>
       <c r="H45" t="n">
-        <v>2.534456038025764</v>
+        <v>2.534456038025738</v>
       </c>
       <c r="I45" t="n">
         <v>8.101473937905466</v>
@@ -2786,13 +2786,13 @@
         <v>5.268641517275475</v>
       </c>
       <c r="L45" t="n">
-        <v>15.33126340551282</v>
+        <v>15.33126340551283</v>
       </c>
       <c r="M45" t="n">
-        <v>2.28117157583063</v>
+        <v>2.281171575830622</v>
       </c>
       <c r="N45" t="n">
-        <v>3.985131634600517</v>
+        <v>3.98513163460052</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003390999999979272</v>
+        <v>0.0002847000000016919</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0.7506147172558701</v>
       </c>
       <c r="F46" t="n">
-        <v>20.15260905215979</v>
+        <v>20.15260905216008</v>
       </c>
       <c r="G46" t="n">
-        <v>185.0696212046855</v>
+        <v>185.0696212046853</v>
       </c>
       <c r="H46" t="n">
-        <v>8.854883729384825</v>
+        <v>8.854883729385156</v>
       </c>
       <c r="I46" t="n">
         <v>9.169296382417432</v>
@@ -2835,16 +2835,16 @@
         <v>23.24401613042153</v>
       </c>
       <c r="K46" t="n">
-        <v>4.0778135960065</v>
+        <v>4.077813596006538</v>
       </c>
       <c r="L46" t="n">
-        <v>6.967864383601631</v>
+        <v>6.967864383601532</v>
       </c>
       <c r="M46" t="n">
-        <v>3.072687201409141</v>
+        <v>3.072687201409091</v>
       </c>
       <c r="N46" t="n">
-        <v>6.00938552279406</v>
+        <v>6.009385522794251</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003511000000031572</v>
+        <v>0.0002269000000012511</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>359.9736252271504</v>
       </c>
       <c r="F47" t="n">
-        <v>20.93994573561061</v>
+        <v>20.93994573561142</v>
       </c>
       <c r="G47" t="n">
-        <v>184.7842158082935</v>
+        <v>184.7842158082929</v>
       </c>
       <c r="H47" t="n">
-        <v>8.218058019617638</v>
+        <v>8.218058019618427</v>
       </c>
       <c r="I47" t="n">
         <v>5.639587406824457</v>
@@ -2887,16 +2887,16 @@
         <v>15.9542760494317</v>
       </c>
       <c r="K47" t="n">
-        <v>2.280296069512993</v>
+        <v>2.280296069513145</v>
       </c>
       <c r="L47" t="n">
-        <v>8.503003932410701</v>
+        <v>8.503003932410554</v>
       </c>
       <c r="M47" t="n">
-        <v>1.841864586568839</v>
+        <v>1.841864586568733</v>
       </c>
       <c r="N47" t="n">
-        <v>2.145937171058852</v>
+        <v>2.145937171058605</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0002997999999934109</v>
+        <v>0.0002190999999953647</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>359.4151241601295</v>
       </c>
       <c r="F48" t="n">
-        <v>15.97296663609917</v>
+        <v>15.97296663609857</v>
       </c>
       <c r="G48" t="n">
-        <v>150.993232092798</v>
+        <v>150.993232092799</v>
       </c>
       <c r="H48" t="n">
-        <v>4.802608970461141</v>
+        <v>4.802608970460891</v>
       </c>
       <c r="I48" t="n">
         <v>27.70526304933168</v>
@@ -2939,16 +2939,16 @@
         <v>19.73114991147893</v>
       </c>
       <c r="K48" t="n">
-        <v>24.57073423107817</v>
+        <v>24.57073423107787</v>
       </c>
       <c r="L48" t="n">
-        <v>9.143511897192711</v>
+        <v>9.143511897192266</v>
       </c>
       <c r="M48" t="n">
-        <v>2.617034279786177</v>
+        <v>2.617034279786424</v>
       </c>
       <c r="N48" t="n">
-        <v>3.294772423650863</v>
+        <v>3.294772423651064</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.000426500000003216</v>
+        <v>0.0002034000000037395</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0.8480094757661352</v>
       </c>
       <c r="F49" t="n">
-        <v>16.62355101139486</v>
+        <v>16.62355101139509</v>
       </c>
       <c r="G49" t="n">
-        <v>185.7304775645253</v>
+        <v>185.7304775645247</v>
       </c>
       <c r="H49" t="n">
-        <v>2.031170155018425</v>
+        <v>2.031170155018632</v>
       </c>
       <c r="I49" t="n">
         <v>9.471004277713373</v>
@@ -2991,16 +2991,16 @@
         <v>44.51408920100896</v>
       </c>
       <c r="K49" t="n">
-        <v>5.78453591061114</v>
+        <v>5.784535910611192</v>
       </c>
       <c r="L49" t="n">
-        <v>11.6394128223305</v>
+        <v>11.63941282233048</v>
       </c>
       <c r="M49" t="n">
-        <v>2.713863734269061</v>
+        <v>2.713863734269025</v>
       </c>
       <c r="N49" t="n">
-        <v>8.439469562506225</v>
+        <v>8.439469562506162</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0003209999999995716</v>
+        <v>0.0002126999999987333</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0.9936313199284542</v>
       </c>
       <c r="F50" t="n">
-        <v>15.683714786725</v>
+        <v>15.6837147867249</v>
       </c>
       <c r="G50" t="n">
-        <v>277.5746124172704</v>
+        <v>277.5746124172735</v>
       </c>
       <c r="H50" t="n">
-        <v>1.557022658518551</v>
+        <v>1.557022658518563</v>
       </c>
       <c r="I50" t="n">
         <v>2.710210794565153</v>
@@ -3049,10 +3049,10 @@
         <v>13.31758799021641</v>
       </c>
       <c r="M50" t="n">
-        <v>3.017296978131423</v>
+        <v>3.017296978131438</v>
       </c>
       <c r="N50" t="n">
-        <v>6.633911162924027</v>
+        <v>6.633911162923948</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003099999999989222</v>
+        <v>0.000256000000000256</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>1.043159078206592</v>
       </c>
       <c r="F51" t="n">
-        <v>17.63915820526445</v>
+        <v>17.63915820526429</v>
       </c>
       <c r="G51" t="n">
-        <v>179.4202222723329</v>
+        <v>179.4202222723331</v>
       </c>
       <c r="H51" t="n">
-        <v>4.245070367606433</v>
+        <v>4.245070367606381</v>
       </c>
       <c r="I51" t="n">
         <v>12.45544517658499</v>
@@ -3095,16 +3095,16 @@
         <v>32.33427654125745</v>
       </c>
       <c r="K51" t="n">
-        <v>8.836624503374273</v>
+        <v>8.836624503374184</v>
       </c>
       <c r="L51" t="n">
-        <v>10.04528226610055</v>
+        <v>10.04528226610045</v>
       </c>
       <c r="M51" t="n">
-        <v>2.195605945609798</v>
+        <v>2.195605945609851</v>
       </c>
       <c r="N51" t="n">
-        <v>5.905519689017925</v>
+        <v>5.905519689017979</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003510999999960518</v>
+        <v>0.0002233000000018137</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>1.560352108683647</v>
       </c>
       <c r="F52" t="n">
-        <v>16.39505258925413</v>
+        <v>16.39505258925432</v>
       </c>
       <c r="G52" t="n">
-        <v>181.5019350834068</v>
+        <v>181.5019350834069</v>
       </c>
       <c r="H52" t="n">
-        <v>5.627836101063471</v>
+        <v>5.627836101063687</v>
       </c>
       <c r="I52" t="n">
         <v>16.32338387411448</v>
@@ -3147,16 +3147,16 @@
         <v>28.65547033479784</v>
       </c>
       <c r="K52" t="n">
-        <v>11.58877061601093</v>
+        <v>11.58877061601101</v>
       </c>
       <c r="L52" t="n">
-        <v>7.1676426303969</v>
+        <v>7.167642630396834</v>
       </c>
       <c r="M52" t="n">
-        <v>3.152758310028729</v>
+        <v>3.152758310028677</v>
       </c>
       <c r="N52" t="n">
-        <v>4.792843661944983</v>
+        <v>4.792843661944873</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.000313499999997191</v>
+        <v>0.00020539999999869</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0.2905031733486384</v>
       </c>
       <c r="F53" t="n">
-        <v>18.15951998194157</v>
+        <v>18.1595199819415</v>
       </c>
       <c r="G53" t="n">
-        <v>177.5726983529955</v>
+        <v>177.572698352996</v>
       </c>
       <c r="H53" t="n">
-        <v>3.881239641722711</v>
+        <v>3.881239641722833</v>
       </c>
       <c r="I53" t="n">
         <v>10.7663770508881</v>
@@ -3199,16 +3199,16 @@
         <v>25.60870945161991</v>
       </c>
       <c r="K53" t="n">
-        <v>7.635121622880061</v>
+        <v>7.635121622879998</v>
       </c>
       <c r="L53" t="n">
-        <v>10.98702323507668</v>
+        <v>10.98702323507646</v>
       </c>
       <c r="M53" t="n">
-        <v>1.974447125450544</v>
+        <v>1.974447125450593</v>
       </c>
       <c r="N53" t="n">
-        <v>3.376614207106148</v>
+        <v>3.376614207106276</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0002927000000028102</v>
+        <v>0.0002034999999978027</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>359.4805241593859</v>
       </c>
       <c r="F54" t="n">
-        <v>17.83884974552285</v>
+        <v>17.83884974552274</v>
       </c>
       <c r="G54" t="n">
-        <v>173.7463675962509</v>
+        <v>173.7463675962506</v>
       </c>
       <c r="H54" t="n">
-        <v>1.671519593008931</v>
+        <v>1.671519593008823</v>
       </c>
       <c r="I54" t="n">
         <v>7.752335685709725</v>
@@ -3251,16 +3251,16 @@
         <v>24.22727636912567</v>
       </c>
       <c r="K54" t="n">
-        <v>5.30043542182206</v>
+        <v>5.300435421822035</v>
       </c>
       <c r="L54" t="n">
-        <v>13.28467165334594</v>
+        <v>13.28467165334596</v>
       </c>
       <c r="M54" t="n">
-        <v>1.95808166258273</v>
+        <v>1.958081662582739</v>
       </c>
       <c r="N54" t="n">
-        <v>3.244236613227914</v>
+        <v>3.244236613227994</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0003557000000000698</v>
+        <v>0.0002375000000043315</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>359.7941351331494</v>
       </c>
       <c r="F55" t="n">
-        <v>17.03552811503377</v>
+        <v>17.03552811503347</v>
       </c>
       <c r="G55" t="n">
-        <v>167.838051651016</v>
+        <v>167.8380516510164</v>
       </c>
       <c r="H55" t="n">
-        <v>5.600628718410333</v>
+        <v>5.600628718410193</v>
       </c>
       <c r="I55" t="n">
         <v>21.12954030412948</v>
@@ -3303,16 +3303,16 @@
         <v>18.25980426170813</v>
       </c>
       <c r="K55" t="n">
-        <v>17.83348303632037</v>
+        <v>17.83348303632018</v>
       </c>
       <c r="L55" t="n">
-        <v>8.245324684111589</v>
+        <v>8.245324684111425</v>
       </c>
       <c r="M55" t="n">
-        <v>2.478266364515836</v>
+        <v>2.478266364515954</v>
       </c>
       <c r="N55" t="n">
-        <v>3.185636936644108</v>
+        <v>3.185636936644209</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003281999999984464</v>
+        <v>0.00025879999999745</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>1.852210744612911</v>
       </c>
       <c r="F56" t="n">
-        <v>15.80941763102513</v>
+        <v>15.80941763102484</v>
       </c>
       <c r="G56" t="n">
-        <v>179.5669078167237</v>
+        <v>179.5669078167242</v>
       </c>
       <c r="H56" t="n">
-        <v>5.061987112161767</v>
+        <v>5.061987112161646</v>
       </c>
       <c r="I56" t="n">
         <v>18.20214824947928</v>
@@ -3355,16 +3355,16 @@
         <v>31.1326825899254</v>
       </c>
       <c r="K56" t="n">
-        <v>13.6542081607284</v>
+        <v>13.65420816072816</v>
       </c>
       <c r="L56" t="n">
-        <v>7.317387393170315</v>
+        <v>7.317387393170151</v>
       </c>
       <c r="M56" t="n">
-        <v>3.022657775228355</v>
+        <v>3.022657775228522</v>
       </c>
       <c r="N56" t="n">
-        <v>5.790581678132621</v>
+        <v>5.790581678132741</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003551999999942268</v>
+        <v>0.0002374000000031629</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>1.623731114633993</v>
       </c>
       <c r="F57" t="n">
-        <v>17.54036017791355</v>
+        <v>17.54036017791354</v>
       </c>
       <c r="G57" t="n">
         <v>191.0155938220234</v>
       </c>
       <c r="H57" t="n">
-        <v>6.696289138711426</v>
+        <v>6.696289138711511</v>
       </c>
       <c r="I57" t="n">
         <v>8.034645537807528</v>
@@ -3407,16 +3407,16 @@
         <v>44.66670492114711</v>
       </c>
       <c r="K57" t="n">
-        <v>1.076354272435037</v>
+        <v>1.076354272434935</v>
       </c>
       <c r="L57" t="n">
-        <v>7.030701445841841</v>
+        <v>7.030701445841734</v>
       </c>
       <c r="M57" t="n">
-        <v>5.086098469293988</v>
+        <v>5.086098469294086</v>
       </c>
       <c r="N57" t="n">
-        <v>8.858360630304555</v>
+        <v>8.858360630304571</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003181999999952723</v>
+        <v>0.0002606999999983373</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>1.037643175502579</v>
       </c>
       <c r="F58" t="n">
-        <v>21.2713460050735</v>
+        <v>21.27134600507396</v>
       </c>
       <c r="G58" t="n">
-        <v>188.034841246785</v>
+        <v>188.0348412467847</v>
       </c>
       <c r="H58" t="n">
-        <v>12.15662701350553</v>
+        <v>12.15662701350618</v>
       </c>
       <c r="I58" t="n">
         <v>4.777926150988158</v>
@@ -3459,16 +3459,16 @@
         <v>19.05908889727014</v>
       </c>
       <c r="K58" t="n">
-        <v>353.4452446323061</v>
+        <v>353.4452446323052</v>
       </c>
       <c r="L58" t="n">
-        <v>4.234428633275726</v>
+        <v>4.234428633275396</v>
       </c>
       <c r="M58" t="n">
-        <v>7.671525190093579</v>
+        <v>7.671525190094187</v>
       </c>
       <c r="N58" t="n">
-        <v>6.242620322380164</v>
+        <v>6.242620322380618</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.002565199999999379</v>
+        <v>0.0003136999999995282</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0.1310521573469041</v>
       </c>
       <c r="F59" t="n">
-        <v>16.48782335361729</v>
+        <v>16.48782335361706</v>
       </c>
       <c r="G59" t="n">
-        <v>223.495194637437</v>
+        <v>223.4951946374484</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9826284254433209</v>
+        <v>0.9826284254431108</v>
       </c>
       <c r="I59" t="n">
         <v>5.111782853534632</v>
@@ -3514,13 +3514,13 @@
         <v>1.745104199491982</v>
       </c>
       <c r="L59" t="n">
-        <v>13.02206117959294</v>
+        <v>13.02206117959305</v>
       </c>
       <c r="M59" t="n">
-        <v>2.483048157519595</v>
+        <v>2.483048157519605</v>
       </c>
       <c r="N59" t="n">
-        <v>7.752982570103056</v>
+        <v>7.752982570102857</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0005404999999996107</v>
+        <v>0.0002891000000033728</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0.7601861461745285</v>
       </c>
       <c r="F60" t="n">
-        <v>15.69508074960381</v>
+        <v>15.69508074960382</v>
       </c>
       <c r="G60" t="n">
-        <v>132.4484944338299</v>
+        <v>132.4484944338305</v>
       </c>
       <c r="H60" t="n">
-        <v>1.9875236421139</v>
+        <v>1.98752364211391</v>
       </c>
       <c r="I60" t="n">
         <v>18.21010211320113</v>
@@ -3566,13 +3566,13 @@
         <v>15.30639949379847</v>
       </c>
       <c r="L60" t="n">
-        <v>11.88935639235984</v>
+        <v>11.88935639235982</v>
       </c>
       <c r="M60" t="n">
-        <v>1.980470570350436</v>
+        <v>1.980470570350437</v>
       </c>
       <c r="N60" t="n">
-        <v>5.373439312289328</v>
+        <v>5.373439312289339</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003132000000007906</v>
+        <v>0.0002077999999983149</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>1.669283521394728</v>
       </c>
       <c r="F61" t="n">
-        <v>19.41219741634124</v>
+        <v>19.41219741634099</v>
       </c>
       <c r="G61" t="n">
-        <v>189.3659043602242</v>
+        <v>189.3659043602244</v>
       </c>
       <c r="H61" t="n">
-        <v>12.44336577223578</v>
+        <v>12.44336577223532</v>
       </c>
       <c r="I61" t="n">
         <v>6.732400721077228</v>
@@ -3615,16 +3615,16 @@
         <v>21.82727400816668</v>
       </c>
       <c r="K61" t="n">
-        <v>341.3341465081544</v>
+        <v>341.3341465081576</v>
       </c>
       <c r="L61" t="n">
-        <v>2.168684445443266</v>
+        <v>2.168684445443535</v>
       </c>
       <c r="M61" t="n">
-        <v>25.71418616158633</v>
+        <v>25.71418616158153</v>
       </c>
       <c r="N61" t="n">
-        <v>12.28248434527577</v>
+        <v>12.28248434527469</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0005171000000032677</v>
+        <v>0.0002004999999982715</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0.9217709932130896</v>
       </c>
       <c r="F62" t="n">
-        <v>17.37787890792641</v>
+        <v>17.37787890792674</v>
       </c>
       <c r="G62" t="n">
-        <v>183.6119355595527</v>
+        <v>183.6119355595525</v>
       </c>
       <c r="H62" t="n">
-        <v>5.270534882802363</v>
+        <v>5.270534882802769</v>
       </c>
       <c r="I62" t="n">
         <v>11.41155827121607</v>
@@ -3667,16 +3667,16 @@
         <v>31.69457505163562</v>
       </c>
       <c r="K62" t="n">
-        <v>7.096132085259375</v>
+        <v>7.096132085259439</v>
       </c>
       <c r="L62" t="n">
-        <v>8.512391370798772</v>
+        <v>8.512391370798621</v>
       </c>
       <c r="M62" t="n">
-        <v>3.166483025201699</v>
+        <v>3.166483025201657</v>
       </c>
       <c r="N62" t="n">
-        <v>5.547227217184549</v>
+        <v>5.547227217184733</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003251999999989152</v>
+        <v>0.0002307000000030257</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0.4314955515598153</v>
       </c>
       <c r="F63" t="n">
-        <v>19.02036065369601</v>
+        <v>19.02036065369564</v>
       </c>
       <c r="G63" t="n">
-        <v>181.1229814949853</v>
+        <v>181.1229814949858</v>
       </c>
       <c r="H63" t="n">
-        <v>6.610788655438166</v>
+        <v>6.610788655438077</v>
       </c>
       <c r="I63" t="n">
         <v>11.32528329067774</v>
@@ -3719,16 +3719,16 @@
         <v>22.53166860081129</v>
       </c>
       <c r="K63" t="n">
-        <v>7.784713219217323</v>
+        <v>7.784713219217094</v>
       </c>
       <c r="L63" t="n">
-        <v>8.550840499654745</v>
+        <v>8.550840499654475</v>
       </c>
       <c r="M63" t="n">
-        <v>2.391850166870097</v>
+        <v>2.391850166870249</v>
       </c>
       <c r="N63" t="n">
-        <v>3.430145045470848</v>
+        <v>3.430145045470895</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0003523999999970329</v>
+        <v>0.0002196999999952709</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0.01232542630370722</v>
       </c>
       <c r="F64" t="n">
-        <v>18.4153852906553</v>
+        <v>18.41538529065487</v>
       </c>
       <c r="G64" t="n">
-        <v>222.9055048877441</v>
+        <v>222.9055048877614</v>
       </c>
       <c r="H64" t="n">
-        <v>1.257352721765629</v>
+        <v>1.257352721765216</v>
       </c>
       <c r="I64" t="n">
         <v>3.462135242408604</v>
@@ -3774,13 +3774,13 @@
         <v>0.5740442613702622</v>
       </c>
       <c r="L64" t="n">
-        <v>14.69458081636662</v>
+        <v>14.69458081636686</v>
       </c>
       <c r="M64" t="n">
-        <v>2.018404596121072</v>
+        <v>2.018404596121079</v>
       </c>
       <c r="N64" t="n">
-        <v>7.469654032242092</v>
+        <v>7.469654032241766</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0003076999999933605</v>
+        <v>0.0002934999999979482</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>2.138978653518098</v>
       </c>
       <c r="F65" t="n">
-        <v>14.72455584396858</v>
+        <v>14.72455584396843</v>
       </c>
       <c r="G65" t="n">
-        <v>181.8396152661554</v>
+        <v>181.8396152661556</v>
       </c>
       <c r="H65" t="n">
-        <v>5.684423664988591</v>
+        <v>5.684423664988463</v>
       </c>
       <c r="I65" t="n">
         <v>21.83479548908128</v>
@@ -3823,16 +3823,16 @@
         <v>27.80920715278775</v>
       </c>
       <c r="K65" t="n">
-        <v>15.86951000925785</v>
+        <v>15.86951000925771</v>
       </c>
       <c r="L65" t="n">
-        <v>5.489357154925386</v>
+        <v>5.489357154925383</v>
       </c>
       <c r="M65" t="n">
-        <v>4.206107576097287</v>
+        <v>4.206107576097394</v>
       </c>
       <c r="N65" t="n">
-        <v>5.549745859045187</v>
+        <v>5.549745859045267</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0002984000000054721</v>
+        <v>0.0002123999999952275</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>358.8996770607683</v>
       </c>
       <c r="F66" t="n">
-        <v>11.42315371445721</v>
+        <v>11.42315371445598</v>
       </c>
       <c r="G66" t="n">
-        <v>45.28742644080081</v>
+        <v>45.28742644079854</v>
       </c>
       <c r="H66" t="n">
-        <v>2.951924855434841</v>
+        <v>2.951924855434072</v>
       </c>
       <c r="I66" t="n">
         <v>20.8613366628729</v>
@@ -3875,16 +3875,16 @@
         <v>33.97314475533167</v>
       </c>
       <c r="K66" t="n">
-        <v>17.06777293302111</v>
+        <v>17.06777293302026</v>
       </c>
       <c r="L66" t="n">
-        <v>11.81733541557064</v>
+        <v>11.81733541556872</v>
       </c>
       <c r="M66" t="n">
-        <v>4.290294977324106</v>
+        <v>4.29029497732527</v>
       </c>
       <c r="N66" t="n">
-        <v>4.35643186019552</v>
+        <v>4.35643186019608</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003267999999962967</v>
+        <v>0.0001942000000028088</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0.8336648231326874</v>
       </c>
       <c r="F67" t="n">
-        <v>20.12207700666779</v>
+        <v>20.12207700666744</v>
       </c>
       <c r="G67" t="n">
-        <v>187.137006987901</v>
+        <v>187.1370069879013</v>
       </c>
       <c r="H67" t="n">
-        <v>7.220481061684873</v>
+        <v>7.220481061684604</v>
       </c>
       <c r="I67" t="n">
         <v>6.987251659285303</v>
@@ -3927,16 +3927,16 @@
         <v>30.74521447866422</v>
       </c>
       <c r="K67" t="n">
-        <v>2.486295154982187</v>
+        <v>2.486295154982098</v>
       </c>
       <c r="L67" t="n">
-        <v>8.914533226914507</v>
+        <v>8.914533226914481</v>
       </c>
       <c r="M67" t="n">
-        <v>2.647387156156265</v>
+        <v>2.647387156156342</v>
       </c>
       <c r="N67" t="n">
-        <v>8.848782316945609</v>
+        <v>8.848782316945449</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003706000000036624</v>
+        <v>0.0002003999999971029</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>358.5843856359357</v>
       </c>
       <c r="F68" t="n">
-        <v>12.57644640030287</v>
+        <v>12.57644640030288</v>
       </c>
       <c r="G68" t="n">
-        <v>3.002564190362549</v>
+        <v>3.002564190362676</v>
       </c>
       <c r="H68" t="n">
-        <v>5.683646143109334</v>
+        <v>5.683646143109486</v>
       </c>
       <c r="I68" t="n">
         <v>6.619109501712943</v>
@@ -3979,16 +3979,16 @@
         <v>32.48901841149885</v>
       </c>
       <c r="K68" t="n">
-        <v>4.151404747196058</v>
+        <v>4.151404747196096</v>
       </c>
       <c r="L68" t="n">
-        <v>16.8113668948546</v>
+        <v>16.8113668948548</v>
       </c>
       <c r="M68" t="n">
-        <v>2.543126523921081</v>
+        <v>2.543126523921043</v>
       </c>
       <c r="N68" t="n">
-        <v>2.626399909338801</v>
+        <v>2.626399909338864</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.001047999999997273</v>
+        <v>0.0002074999999948091</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>358.8714778477798</v>
       </c>
       <c r="F69" t="n">
-        <v>11.4128918309967</v>
+        <v>11.41289183099751</v>
       </c>
       <c r="G69" t="n">
-        <v>86.08157643713545</v>
+        <v>86.0815764371323</v>
       </c>
       <c r="H69" t="n">
-        <v>3.610121831868068</v>
+        <v>3.610121831868706</v>
       </c>
       <c r="I69" t="n">
         <v>34.07554230545824</v>
@@ -4031,16 +4031,16 @@
         <v>30.29280265083704</v>
       </c>
       <c r="K69" t="n">
-        <v>30.09150144116983</v>
+        <v>30.09150144117028</v>
       </c>
       <c r="L69" t="n">
-        <v>10.50634132199684</v>
+        <v>10.50634132199815</v>
       </c>
       <c r="M69" t="n">
-        <v>4.041001597958044</v>
+        <v>4.041001597957241</v>
       </c>
       <c r="N69" t="n">
-        <v>4.210650940916711</v>
+        <v>4.210650940916493</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0005079999999964002</v>
+        <v>0.0002479999999991378</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0.9444763643716535</v>
       </c>
       <c r="F70" t="n">
-        <v>19.19409345295182</v>
+        <v>19.19409345295162</v>
       </c>
       <c r="G70" t="n">
-        <v>187.3120669199267</v>
+        <v>187.3120669199269</v>
       </c>
       <c r="H70" t="n">
-        <v>7.463290800774129</v>
+        <v>7.46329080077407</v>
       </c>
       <c r="I70" t="n">
         <v>7.978481920009612</v>
@@ -4083,16 +4083,16 @@
         <v>30.5774947170148</v>
       </c>
       <c r="K70" t="n">
-        <v>2.582847230517014</v>
+        <v>2.582847230516861</v>
       </c>
       <c r="L70" t="n">
-        <v>7.699829310599319</v>
+        <v>7.699829310599196</v>
       </c>
       <c r="M70" t="n">
-        <v>3.188150566156842</v>
+        <v>3.188150566156955</v>
       </c>
       <c r="N70" t="n">
-        <v>8.911647896076891</v>
+        <v>8.911647896076897</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003284999999948468</v>
+        <v>0.0002075000000019145</v>
       </c>
     </row>
     <row r="71">
@@ -4120,31 +4120,31 @@
         <v>359.0844929014519</v>
       </c>
       <c r="F71" t="n">
-        <v>11.83138578488774</v>
+        <v>11.83138578488819</v>
       </c>
       <c r="G71" t="n">
-        <v>36.18795539897572</v>
+        <v>36.18795539897682</v>
       </c>
       <c r="H71" t="n">
-        <v>4.477615327351185</v>
+        <v>4.477615327351445</v>
       </c>
       <c r="I71" t="n">
-        <v>20.1658829375731</v>
+        <v>20.16588293757309</v>
       </c>
       <c r="J71" t="n">
         <v>38.87559435981993</v>
       </c>
       <c r="K71" t="n">
-        <v>17.0434140219788</v>
+        <v>17.04341402197904</v>
       </c>
       <c r="L71" t="n">
-        <v>14.17250403544184</v>
+        <v>14.17250403544253</v>
       </c>
       <c r="M71" t="n">
-        <v>3.098954632703808</v>
+        <v>3.098954632703544</v>
       </c>
       <c r="N71" t="n">
-        <v>3.88729635151228</v>
+        <v>3.887296351512108</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0003536999999980139</v>
+        <v>0.0002001000000007025</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>359.1490025916981</v>
       </c>
       <c r="F72" t="n">
-        <v>17.30481205962668</v>
+        <v>17.30481205962829</v>
       </c>
       <c r="G72" t="n">
-        <v>170.9958937523635</v>
+        <v>170.9958937523613</v>
       </c>
       <c r="H72" t="n">
-        <v>6.812167171321367</v>
+        <v>6.812167171322065</v>
       </c>
       <c r="I72" t="n">
         <v>22.50110910593897</v>
@@ -4187,16 +4187,16 @@
         <v>12.59736678041878</v>
       </c>
       <c r="K72" t="n">
-        <v>18.34587417726146</v>
+        <v>18.34587417726258</v>
       </c>
       <c r="L72" t="n">
-        <v>6.966769433667717</v>
+        <v>6.966769433668632</v>
       </c>
       <c r="M72" t="n">
-        <v>2.857481443426345</v>
+        <v>2.857481443425533</v>
       </c>
       <c r="N72" t="n">
-        <v>3.120582276551497</v>
+        <v>3.120582276550908</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003127999999961162</v>
+        <v>0.0001960000000025275</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0.4306031497297935</v>
       </c>
       <c r="F73" t="n">
-        <v>17.53208441137156</v>
+        <v>17.53208441137147</v>
       </c>
       <c r="G73" t="n">
-        <v>177.7016142584368</v>
+        <v>177.7016142584378</v>
       </c>
       <c r="H73" t="n">
-        <v>2.632979078063783</v>
+        <v>2.632979078063919</v>
       </c>
       <c r="I73" t="n">
         <v>10.06238009975766</v>
@@ -4239,16 +4239,16 @@
         <v>35.58374545764129</v>
       </c>
       <c r="K73" t="n">
-        <v>6.928942793427217</v>
+        <v>6.928942793427141</v>
       </c>
       <c r="L73" t="n">
-        <v>11.84470115548251</v>
+        <v>11.84470115548225</v>
       </c>
       <c r="M73" t="n">
-        <v>2.227042868479974</v>
+        <v>2.227042868480038</v>
       </c>
       <c r="N73" t="n">
-        <v>7.141029005356517</v>
+        <v>7.141029005356524</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003128000000032216</v>
+        <v>0.0002288000000021384</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>359.6814545009342</v>
       </c>
       <c r="F74" t="n">
-        <v>14.35797634283052</v>
+        <v>14.35797634283058</v>
       </c>
       <c r="G74" t="n">
-        <v>4.132164238293179</v>
+        <v>4.132164238293522</v>
       </c>
       <c r="H74" t="n">
-        <v>2.659782841889334</v>
+        <v>2.659782841889426</v>
       </c>
       <c r="I74" t="n">
         <v>7.949461920862264</v>
@@ -4291,16 +4291,16 @@
         <v>40.47776009458681</v>
       </c>
       <c r="K74" t="n">
-        <v>5.056622034994185</v>
+        <v>5.056622034994223</v>
       </c>
       <c r="L74" t="n">
-        <v>14.98314761356957</v>
+        <v>14.98314761356974</v>
       </c>
       <c r="M74" t="n">
-        <v>2.570512170020762</v>
+        <v>2.570512170020718</v>
       </c>
       <c r="N74" t="n">
-        <v>4.056905032892928</v>
+        <v>4.056905032892878</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003188999999963471</v>
+        <v>0.0002484000000038122</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>359.42318694869</v>
       </c>
       <c r="F75" t="n">
-        <v>15.39156908932774</v>
+        <v>15.39156908932799</v>
       </c>
       <c r="G75" t="n">
-        <v>120.3084232591605</v>
+        <v>120.3084232591578</v>
       </c>
       <c r="H75" t="n">
-        <v>3.624222585302088</v>
+        <v>3.624222585302175</v>
       </c>
       <c r="I75" t="n">
         <v>26.91838834236455</v>
@@ -4343,16 +4343,16 @@
         <v>25.19117466107735</v>
       </c>
       <c r="K75" t="n">
-        <v>24.26964007817429</v>
+        <v>24.26964007817438</v>
       </c>
       <c r="L75" t="n">
-        <v>11.60531383633512</v>
+        <v>11.60531383633554</v>
       </c>
       <c r="M75" t="n">
-        <v>2.370325412206139</v>
+        <v>2.37032541220602</v>
       </c>
       <c r="N75" t="n">
-        <v>3.219217344443964</v>
+        <v>3.219217344443825</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003115000000022405</v>
+        <v>0.0002081000000018207</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>359.3916545061923</v>
       </c>
       <c r="F76" t="n">
-        <v>13.64828332504214</v>
+        <v>13.64828332504228</v>
       </c>
       <c r="G76" t="n">
-        <v>26.30596826009808</v>
+        <v>26.30596826009812</v>
       </c>
       <c r="H76" t="n">
-        <v>4.0117634842242</v>
+        <v>4.011763484224352</v>
       </c>
       <c r="I76" t="n">
         <v>14.26388074475133</v>
@@ -4395,16 +4395,16 @@
         <v>40.62758235916512</v>
       </c>
       <c r="K76" t="n">
-        <v>11.63138300478956</v>
+        <v>11.63138300478963</v>
       </c>
       <c r="L76" t="n">
-        <v>15.66847178179764</v>
+        <v>15.66847178179795</v>
       </c>
       <c r="M76" t="n">
-        <v>2.392201790272214</v>
+        <v>2.392201790272138</v>
       </c>
       <c r="N76" t="n">
-        <v>3.626410025081029</v>
+        <v>3.62641002508097</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.001064200000001847</v>
+        <v>0.0002046999999976151</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0.7095021339760793</v>
       </c>
       <c r="F77" t="n">
-        <v>18.38459655895157</v>
+        <v>18.3845965589516</v>
       </c>
       <c r="G77" t="n">
-        <v>181.4278330957867</v>
+        <v>181.4278330957866</v>
       </c>
       <c r="H77" t="n">
-        <v>6.076026140343564</v>
+        <v>6.076026140343562</v>
       </c>
       <c r="I77" t="n">
         <v>12.00268982686304</v>
@@ -4447,16 +4447,16 @@
         <v>26.99609284033786</v>
       </c>
       <c r="K77" t="n">
-        <v>8.165225483425381</v>
+        <v>8.165225483425393</v>
       </c>
       <c r="L77" t="n">
-        <v>8.564680536407202</v>
+        <v>8.564680536407236</v>
       </c>
       <c r="M77" t="n">
-        <v>2.59324653917337</v>
+        <v>2.593246539173352</v>
       </c>
       <c r="N77" t="n">
-        <v>5.57900953595429</v>
+        <v>5.579009535954278</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0004676000000003455</v>
+        <v>0.0002110000000001833</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>359.0596986892811</v>
       </c>
       <c r="F78" t="n">
-        <v>12.16059556018307</v>
+        <v>12.16059556018293</v>
       </c>
       <c r="G78" t="n">
-        <v>42.17557966056786</v>
+        <v>42.17557966056727</v>
       </c>
       <c r="H78" t="n">
-        <v>4.253586658432471</v>
+        <v>4.253586658432436</v>
       </c>
       <c r="I78" t="n">
         <v>21.14464081260298</v>
@@ -4499,16 +4499,16 @@
         <v>38.60175053192231</v>
       </c>
       <c r="K78" t="n">
-        <v>18.26514060765535</v>
+        <v>18.26514060765528</v>
       </c>
       <c r="L78" t="n">
-        <v>14.03234950990812</v>
+        <v>14.03234950990797</v>
       </c>
       <c r="M78" t="n">
-        <v>3.07084101264679</v>
+        <v>3.070841012646855</v>
       </c>
       <c r="N78" t="n">
-        <v>3.796051324249369</v>
+        <v>3.796051324249418</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003078999999956977</v>
+        <v>0.0002169000000051824</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>359.7755551479245</v>
       </c>
       <c r="F79" t="n">
-        <v>18.90093355108039</v>
+        <v>18.90093355108168</v>
       </c>
       <c r="G79" t="n">
-        <v>174.630221068933</v>
+        <v>174.6302210689307</v>
       </c>
       <c r="H79" t="n">
-        <v>6.94959952848135</v>
+        <v>6.949599528481602</v>
       </c>
       <c r="I79" t="n">
         <v>16.40253997268591</v>
@@ -4551,16 +4551,16 @@
         <v>15.58284333545443</v>
       </c>
       <c r="K79" t="n">
-        <v>13.2327063476572</v>
+        <v>13.23270634765799</v>
       </c>
       <c r="L79" t="n">
-        <v>8.199207014295855</v>
+        <v>8.199207014296931</v>
       </c>
       <c r="M79" t="n">
-        <v>2.051922519699337</v>
+        <v>2.051922519698873</v>
       </c>
       <c r="N79" t="n">
-        <v>2.689166262438694</v>
+        <v>2.689166262438271</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003856999999953814</v>
+        <v>0.0002400999999991882</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>359.8779538627754</v>
       </c>
       <c r="F80" t="n">
-        <v>16.79814759370484</v>
+        <v>16.79814759370428</v>
       </c>
       <c r="G80" t="n">
-        <v>245.5958583856173</v>
+        <v>245.5958583856327</v>
       </c>
       <c r="H80" t="n">
-        <v>0.7238371585898158</v>
+        <v>0.7238371585897765</v>
       </c>
       <c r="I80" t="n">
         <v>4.491261423189937</v>
@@ -4603,16 +4603,16 @@
         <v>40.76138943515837</v>
       </c>
       <c r="K80" t="n">
-        <v>1.424236476051819</v>
+        <v>1.424236476051641</v>
       </c>
       <c r="L80" t="n">
-        <v>13.82713710637024</v>
+        <v>13.8271371063699</v>
       </c>
       <c r="M80" t="n">
-        <v>2.475234866736753</v>
+        <v>2.475234866736902</v>
       </c>
       <c r="N80" t="n">
-        <v>7.282990736786408</v>
+        <v>7.282990736786087</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003169000000013966</v>
+        <v>0.0002071999999984087</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>3.316358820770084</v>
       </c>
       <c r="F81" t="n">
-        <v>11.86847622894458</v>
+        <v>11.86847622894454</v>
       </c>
       <c r="G81" t="n">
         <v>192.802469502552</v>
       </c>
       <c r="H81" t="n">
-        <v>5.674299813779048</v>
+        <v>5.674299813779036</v>
       </c>
       <c r="I81" t="n">
         <v>22.81548823738686</v>
@@ -4655,16 +4655,16 @@
         <v>29.68449734234962</v>
       </c>
       <c r="K81" t="n">
-        <v>7.649832140184428</v>
+        <v>7.649832140184263</v>
       </c>
       <c r="L81" t="n">
-        <v>2.615634147211943</v>
+        <v>2.615634147211922</v>
       </c>
       <c r="M81" t="n">
-        <v>15.05464508836151</v>
+        <v>15.05464508836175</v>
       </c>
       <c r="N81" t="n">
-        <v>8.731990376575466</v>
+        <v>8.731990376575515</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.00030569999999841</v>
+        <v>0.0001976999999939721</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>358.1001470638519</v>
       </c>
       <c r="F82" t="n">
-        <v>10.48455306272984</v>
+        <v>10.48455306273192</v>
       </c>
       <c r="G82" t="n">
-        <v>71.70432615687059</v>
+        <v>71.70432615687473</v>
       </c>
       <c r="H82" t="n">
-        <v>2.920496361374789</v>
+        <v>2.920496361375996</v>
       </c>
       <c r="I82" t="n">
         <v>29.25110244472909</v>
@@ -4707,16 +4707,16 @@
         <v>30.30774104493361</v>
       </c>
       <c r="K82" t="n">
-        <v>24.84739467355404</v>
+        <v>24.84739467355575</v>
       </c>
       <c r="L82" t="n">
-        <v>9.876894762245373</v>
+        <v>9.876894762248032</v>
       </c>
       <c r="M82" t="n">
-        <v>5.524246572287035</v>
+        <v>5.52424657228445</v>
       </c>
       <c r="N82" t="n">
-        <v>4.639601215105125</v>
+        <v>4.639601215104184</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0004449999999991405</v>
+        <v>0.0001991999999972904</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>1.359900342218693</v>
       </c>
       <c r="F83" t="n">
-        <v>16.7377550023951</v>
+        <v>16.737755002395</v>
       </c>
       <c r="G83" t="n">
-        <v>177.4336672985948</v>
+        <v>177.4336672985955</v>
       </c>
       <c r="H83" t="n">
-        <v>4.676368624795878</v>
+        <v>4.676368624795977</v>
       </c>
       <c r="I83" t="n">
         <v>15.81851978734653</v>
@@ -4759,16 +4759,16 @@
         <v>32.34144758506243</v>
       </c>
       <c r="K83" t="n">
-        <v>12.06409025028385</v>
+        <v>12.06409025028373</v>
       </c>
       <c r="L83" t="n">
-        <v>8.702872033702363</v>
+        <v>8.702872033702128</v>
       </c>
       <c r="M83" t="n">
-        <v>2.778262483489696</v>
+        <v>2.778262483489789</v>
       </c>
       <c r="N83" t="n">
-        <v>5.844352872441831</v>
+        <v>5.844352872441854</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003262999999975591</v>
+        <v>0.0001932999999993967</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>359.1593495972439</v>
       </c>
       <c r="F84" t="n">
-        <v>12.14270224841701</v>
+        <v>12.14270224841667</v>
       </c>
       <c r="G84" t="n">
-        <v>31.98955076844437</v>
+        <v>31.98955076844422</v>
       </c>
       <c r="H84" t="n">
-        <v>3.430319029119701</v>
+        <v>3.430319029119367</v>
       </c>
       <c r="I84" t="n">
         <v>17.00129706224179</v>
@@ -4811,16 +4811,16 @@
         <v>37.32399253950987</v>
       </c>
       <c r="K84" t="n">
-        <v>13.69990942702697</v>
+        <v>13.69990942702674</v>
       </c>
       <c r="L84" t="n">
-        <v>13.39748646121919</v>
+        <v>13.39748646121849</v>
       </c>
       <c r="M84" t="n">
-        <v>3.393953092101077</v>
+        <v>3.393953092101362</v>
       </c>
       <c r="N84" t="n">
-        <v>4.028866638340663</v>
+        <v>4.02886663834084</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0004322999999999411</v>
+        <v>0.0002439000000009628</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>359.150687113963</v>
       </c>
       <c r="F85" t="n">
-        <v>12.66327166835903</v>
+        <v>12.66327166835919</v>
       </c>
       <c r="G85" t="n">
-        <v>31.01778258019938</v>
+        <v>31.01778258019923</v>
       </c>
       <c r="H85" t="n">
-        <v>3.896521892300419</v>
+        <v>3.896521892300631</v>
       </c>
       <c r="I85" t="n">
         <v>16.53125344579031</v>
@@ -4863,16 +4863,16 @@
         <v>38.26062136792312</v>
       </c>
       <c r="K85" t="n">
-        <v>13.57113633803749</v>
+        <v>13.57113633803759</v>
       </c>
       <c r="L85" t="n">
-        <v>14.45636712561839</v>
+        <v>14.45636712561879</v>
       </c>
       <c r="M85" t="n">
-        <v>2.865841217212594</v>
+        <v>2.865841217212472</v>
       </c>
       <c r="N85" t="n">
-        <v>3.788873854232703</v>
+        <v>3.78887385423262</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003564999999952079</v>
+        <v>0.0002601999999995996</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0.1316122019755955</v>
       </c>
       <c r="F86" t="n">
-        <v>15.74183148881324</v>
+        <v>15.74183148881314</v>
       </c>
       <c r="G86" t="n">
-        <v>300.360336698307</v>
+        <v>300.3603366983092</v>
       </c>
       <c r="H86" t="n">
-        <v>1.087889339974899</v>
+        <v>1.087889339974931</v>
       </c>
       <c r="I86" t="n">
         <v>3.881837099353531</v>
@@ -4915,16 +4915,16 @@
         <v>36.30515202144628</v>
       </c>
       <c r="K86" t="n">
-        <v>0.3332232676223805</v>
+        <v>0.333223267622355</v>
       </c>
       <c r="L86" t="n">
-        <v>13.78549147971148</v>
+        <v>13.78549147971144</v>
       </c>
       <c r="M86" t="n">
-        <v>2.708545613055225</v>
+        <v>2.708545613055248</v>
       </c>
       <c r="N86" t="n">
-        <v>5.753731923727516</v>
+        <v>5.753731923727461</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003421000000045638</v>
+        <v>0.0002250000000003638</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>359.8231492789211</v>
       </c>
       <c r="F87" t="n">
-        <v>15.07119695946553</v>
+        <v>15.07119695946569</v>
       </c>
       <c r="G87" t="n">
-        <v>126.0541969690716</v>
+        <v>126.0541969690726</v>
       </c>
       <c r="H87" t="n">
-        <v>3.259785255368977</v>
+        <v>3.25978525536906</v>
       </c>
       <c r="I87" t="n">
         <v>25.87965439725306</v>
@@ -4967,16 +4967,16 @@
         <v>25.95106000866057</v>
       </c>
       <c r="K87" t="n">
-        <v>22.88964733289782</v>
+        <v>22.88964733289793</v>
       </c>
       <c r="L87" t="n">
-        <v>11.02029085507934</v>
+        <v>11.0202908550794</v>
       </c>
       <c r="M87" t="n">
-        <v>2.41770526389153</v>
+        <v>2.417705263891484</v>
       </c>
       <c r="N87" t="n">
-        <v>3.671265938698198</v>
+        <v>3.671265938698167</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003681999999969321</v>
+        <v>0.000212799999999902</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0.596285718967305</v>
       </c>
       <c r="F88" t="n">
-        <v>18.32873115091379</v>
+        <v>18.32873115091395</v>
       </c>
       <c r="G88" t="n">
-        <v>184.5534501020837</v>
+        <v>184.5534501020832</v>
       </c>
       <c r="H88" t="n">
-        <v>4.705703120357207</v>
+        <v>4.705703120357122</v>
       </c>
       <c r="I88" t="n">
         <v>8.841399981764416</v>
@@ -5019,16 +5019,16 @@
         <v>33.06978590212768</v>
       </c>
       <c r="K88" t="n">
-        <v>5.173715961842677</v>
+        <v>5.173715961842817</v>
       </c>
       <c r="L88" t="n">
-        <v>10.12360030542976</v>
+        <v>10.12360030543002</v>
       </c>
       <c r="M88" t="n">
-        <v>2.453230080574246</v>
+        <v>2.453230080574152</v>
       </c>
       <c r="N88" t="n">
-        <v>6.130719063817051</v>
+        <v>6.130719063817031</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0004107000000033167</v>
+        <v>0.0005360000000038667</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>359.6276244791469</v>
       </c>
       <c r="F89" t="n">
-        <v>13.56739439320641</v>
+        <v>13.56739439320974</v>
       </c>
       <c r="G89" t="n">
-        <v>123.5273600443513</v>
+        <v>123.5273600443486</v>
       </c>
       <c r="H89" t="n">
-        <v>4.851451354938395</v>
+        <v>4.851451354940369</v>
       </c>
       <c r="I89" t="n">
         <v>40.62090861008976</v>
@@ -5071,16 +5071,16 @@
         <v>25.30051964941712</v>
       </c>
       <c r="K89" t="n">
-        <v>37.49994573143324</v>
+        <v>37.49994573143502</v>
       </c>
       <c r="L89" t="n">
-        <v>9.749990317063217</v>
+        <v>9.749990317066279</v>
       </c>
       <c r="M89" t="n">
-        <v>2.774098333493741</v>
+        <v>2.774098333492159</v>
       </c>
       <c r="N89" t="n">
-        <v>3.60078425785353</v>
+        <v>3.600784257852472</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0002919000000005667</v>
+        <v>0.0002228999999971393</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>359.8931156958482</v>
       </c>
       <c r="F90" t="n">
-        <v>15.65038890663209</v>
+        <v>15.65038890663422</v>
       </c>
       <c r="G90" t="n">
-        <v>136.1121581793162</v>
+        <v>136.11215817931</v>
       </c>
       <c r="H90" t="n">
-        <v>3.658669673794809</v>
+        <v>3.65866967379557</v>
       </c>
       <c r="I90" t="n">
         <v>25.88603784183202</v>
@@ -5123,16 +5123,16 @@
         <v>25.01898544775609</v>
       </c>
       <c r="K90" t="n">
-        <v>22.97737605707353</v>
+        <v>22.97737605707456</v>
       </c>
       <c r="L90" t="n">
-        <v>10.72041043321765</v>
+        <v>10.7204104332197</v>
       </c>
       <c r="M90" t="n">
-        <v>2.395489867744003</v>
+        <v>2.395489867743184</v>
       </c>
       <c r="N90" t="n">
-        <v>3.661804315751814</v>
+        <v>3.661804315751056</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0005646999999981972</v>
+        <v>0.0002721000000036611</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>1.693730026547098</v>
       </c>
       <c r="F91" t="n">
-        <v>16.59239735287898</v>
+        <v>16.59239735287908</v>
       </c>
       <c r="G91" t="n">
-        <v>181.7635206628226</v>
+        <v>181.7635206628217</v>
       </c>
       <c r="H91" t="n">
-        <v>6.1358385454726</v>
+        <v>6.135838545472303</v>
       </c>
       <c r="I91" t="n">
         <v>17.15632957635029</v>
@@ -5175,16 +5175,16 @@
         <v>28.66617941202903</v>
       </c>
       <c r="K91" t="n">
-        <v>12.24394693974405</v>
+        <v>12.24394693974431</v>
       </c>
       <c r="L91" t="n">
-        <v>6.763103676887172</v>
+        <v>6.76310367688764</v>
       </c>
       <c r="M91" t="n">
-        <v>3.193985506610035</v>
+        <v>3.193985506609814</v>
       </c>
       <c r="N91" t="n">
-        <v>4.823613406512943</v>
+        <v>4.8236134065127</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0003105000000047653</v>
+        <v>0.0002566000000001623</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0.2244866681993254</v>
       </c>
       <c r="F92" t="n">
-        <v>17.41378024380007</v>
+        <v>17.41378024380053</v>
       </c>
       <c r="G92" t="n">
-        <v>190.5515781258616</v>
+        <v>190.5515781258599</v>
       </c>
       <c r="H92" t="n">
-        <v>2.515943365245578</v>
+        <v>2.515943365245725</v>
       </c>
       <c r="I92" t="n">
         <v>6.799638401444717</v>
@@ -5227,16 +5227,16 @@
         <v>32.8194763419126</v>
       </c>
       <c r="K92" t="n">
-        <v>3.318097498265357</v>
+        <v>3.318097498265548</v>
       </c>
       <c r="L92" t="n">
-        <v>11.84906816603507</v>
+        <v>11.84906816603535</v>
       </c>
       <c r="M92" t="n">
-        <v>2.365411983169672</v>
+        <v>2.365411983169539</v>
       </c>
       <c r="N92" t="n">
-        <v>7.224684111687132</v>
+        <v>7.22468411168695</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.00103449999999583</v>
+        <v>0.000209899999994434</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0.6061210177347658</v>
       </c>
       <c r="F93" t="n">
-        <v>17.72339238377783</v>
+        <v>17.72339238377787</v>
       </c>
       <c r="G93" t="n">
-        <v>179.9372631249004</v>
+        <v>179.9372631248997</v>
       </c>
       <c r="H93" t="n">
-        <v>3.240947518657716</v>
+        <v>3.240947518657541</v>
       </c>
       <c r="I93" t="n">
         <v>10.12608089519902</v>
@@ -5279,16 +5279,16 @@
         <v>34.65343846802563</v>
       </c>
       <c r="K93" t="n">
-        <v>6.924198526390577</v>
+        <v>6.924198526390666</v>
       </c>
       <c r="L93" t="n">
-        <v>11.29931489359877</v>
+        <v>11.29931489359903</v>
       </c>
       <c r="M93" t="n">
-        <v>2.138883972929919</v>
+        <v>2.138883972929861</v>
       </c>
       <c r="N93" t="n">
-        <v>6.851506171259804</v>
+        <v>6.851506171259816</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003268000000034021</v>
+        <v>0.0002443000000056372</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>359.7697007582177</v>
       </c>
       <c r="F94" t="n">
-        <v>18.63345550659392</v>
+        <v>18.6334555065954</v>
       </c>
       <c r="G94" t="n">
-        <v>168.6874715581374</v>
+        <v>168.6874715581352</v>
       </c>
       <c r="H94" t="n">
-        <v>7.723753642386721</v>
+        <v>7.723753642387305</v>
       </c>
       <c r="I94" t="n">
         <v>25.62795621500346</v>
@@ -5331,16 +5331,16 @@
         <v>14.83878058168517</v>
       </c>
       <c r="K94" t="n">
-        <v>22.80840300616813</v>
+        <v>22.80840300616891</v>
       </c>
       <c r="L94" t="n">
-        <v>7.51623039417153</v>
+        <v>7.516230394172518</v>
       </c>
       <c r="M94" t="n">
-        <v>1.829402672761414</v>
+        <v>1.829402672760968</v>
       </c>
       <c r="N94" t="n">
-        <v>2.708729860293441</v>
+        <v>2.708729860292959</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003007999999979916</v>
+        <v>0.0002238000000005513</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>358.3698019196562</v>
       </c>
       <c r="F95" t="n">
-        <v>12.33624524007754</v>
+        <v>12.33624524007903</v>
       </c>
       <c r="G95" t="n">
-        <v>91.22504502452117</v>
+        <v>91.22504502452274</v>
       </c>
       <c r="H95" t="n">
-        <v>3.338791963678477</v>
+        <v>3.338791963679242</v>
       </c>
       <c r="I95" t="n">
         <v>30.33422199235522</v>
@@ -5383,16 +5383,16 @@
         <v>26.76193268396159</v>
       </c>
       <c r="K95" t="n">
-        <v>26.61513116366321</v>
+        <v>26.61513116366411</v>
       </c>
       <c r="L95" t="n">
-        <v>10.77051980424445</v>
+        <v>10.77051980424606</v>
       </c>
       <c r="M95" t="n">
-        <v>3.811240552148929</v>
+        <v>3.811240552147891</v>
       </c>
       <c r="N95" t="n">
-        <v>4.107175162306121</v>
+        <v>4.107175162305579</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.00124100000000027</v>
+        <v>0.0002051999999963527</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>359.2565467844867</v>
       </c>
       <c r="F96" t="n">
-        <v>15.06054801775366</v>
+        <v>15.06054801775515</v>
       </c>
       <c r="G96" t="n">
-        <v>132.6026541866477</v>
+        <v>132.6026541866435</v>
       </c>
       <c r="H96" t="n">
-        <v>3.897711036412174</v>
+        <v>3.897711036412779</v>
       </c>
       <c r="I96" t="n">
         <v>28.70555251722355</v>
@@ -5435,16 +5435,16 @@
         <v>22.27073467156608</v>
       </c>
       <c r="K96" t="n">
-        <v>25.46466597146303</v>
+        <v>25.46466597146377</v>
       </c>
       <c r="L96" t="n">
-        <v>10.27505305123313</v>
+        <v>10.27505305123458</v>
       </c>
       <c r="M96" t="n">
-        <v>2.602008004718826</v>
+        <v>2.602008004718181</v>
       </c>
       <c r="N96" t="n">
-        <v>3.338494538205451</v>
+        <v>3.338494538204905</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003165000000038276</v>
+        <v>0.0002043000000000461</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0.6642888995524697</v>
       </c>
       <c r="F97" t="n">
-        <v>18.44048045240153</v>
+        <v>18.44048045240209</v>
       </c>
       <c r="G97" t="n">
-        <v>183.1035976908824</v>
+        <v>183.1035976908815</v>
       </c>
       <c r="H97" t="n">
-        <v>4.385840424972094</v>
+        <v>4.385840424972317</v>
       </c>
       <c r="I97" t="n">
         <v>9.443662727940012</v>
@@ -5487,16 +5487,16 @@
         <v>32.60134686113346</v>
       </c>
       <c r="K97" t="n">
-        <v>5.938876545296032</v>
+        <v>5.938876545296287</v>
       </c>
       <c r="L97" t="n">
-        <v>10.62461346932036</v>
+        <v>10.62461346932066</v>
       </c>
       <c r="M97" t="n">
-        <v>2.271993097956959</v>
+        <v>2.271993097956796</v>
       </c>
       <c r="N97" t="n">
-        <v>5.974292375111874</v>
+        <v>5.974292375111667</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0002867000000037478</v>
+        <v>0.0001962999999989279</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>359.930152225234</v>
       </c>
       <c r="F98" t="n">
-        <v>13.65116967708625</v>
+        <v>13.65116967708576</v>
       </c>
       <c r="G98" t="n">
-        <v>34.73263531216349</v>
+        <v>34.73263531216104</v>
       </c>
       <c r="H98" t="n">
-        <v>3.199238795405796</v>
+        <v>3.19923879540576</v>
       </c>
       <c r="I98" t="n">
         <v>16.00737530966048</v>
@@ -5539,16 +5539,16 @@
         <v>42.05525927522663</v>
       </c>
       <c r="K98" t="n">
-        <v>13.24946765091295</v>
+        <v>13.24946765091274</v>
       </c>
       <c r="L98" t="n">
-        <v>14.5778766666721</v>
+        <v>14.57787666667164</v>
       </c>
       <c r="M98" t="n">
-        <v>2.4750545918175</v>
+        <v>2.475054591817662</v>
       </c>
       <c r="N98" t="n">
-        <v>3.801369117256947</v>
+        <v>3.801369117257082</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.000300800000005097</v>
+        <v>0.0002690000000029613</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>1.751187751292006</v>
       </c>
       <c r="F99" t="n">
-        <v>14.48571553381736</v>
+        <v>14.48571553381908</v>
       </c>
       <c r="G99" t="n">
-        <v>176.6604982479479</v>
+        <v>176.6604982479449</v>
       </c>
       <c r="H99" t="n">
-        <v>7.286771221175695</v>
+        <v>7.286771221176656</v>
       </c>
       <c r="I99" t="n">
         <v>39.03082884889427</v>
@@ -5591,16 +5591,16 @@
         <v>15.53497559712574</v>
       </c>
       <c r="K99" t="n">
-        <v>34.11355471002232</v>
+        <v>34.11355471002447</v>
       </c>
       <c r="L99" t="n">
-        <v>3.78452211673004</v>
+        <v>3.784522116730857</v>
       </c>
       <c r="M99" t="n">
-        <v>2.973402699078365</v>
+        <v>2.97340269907694</v>
       </c>
       <c r="N99" t="n">
-        <v>4.396142241732399</v>
+        <v>4.396142241731532</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0003270999999998025</v>
+        <v>0.0002173000000027514</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>359.5262829187342</v>
       </c>
       <c r="F100" t="n">
-        <v>15.1051711653768</v>
+        <v>15.10517116537799</v>
       </c>
       <c r="G100" t="n">
-        <v>144.1524961254955</v>
+        <v>144.1524961254928</v>
       </c>
       <c r="H100" t="n">
-        <v>3.914051636961342</v>
+        <v>3.914051636961811</v>
       </c>
       <c r="I100" t="n">
         <v>26.96775176704555</v>
@@ -5643,16 +5643,16 @@
         <v>21.92280540344407</v>
       </c>
       <c r="K100" t="n">
-        <v>23.61941381489286</v>
+        <v>23.61941381489353</v>
       </c>
       <c r="L100" t="n">
-        <v>9.474853503907109</v>
+        <v>9.474853503908092</v>
       </c>
       <c r="M100" t="n">
-        <v>2.672788795453461</v>
+        <v>2.672788795452936</v>
       </c>
       <c r="N100" t="n">
-        <v>3.594197191519104</v>
+        <v>3.594197191518672</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003001999999980853</v>
+        <v>0.0002041999999988775</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0.1423588427019467</v>
       </c>
       <c r="F101" t="n">
-        <v>16.35365667848234</v>
+        <v>16.35365667848499</v>
       </c>
       <c r="G101" t="n">
-        <v>147.6069590274452</v>
+        <v>147.6069590274381</v>
       </c>
       <c r="H101" t="n">
-        <v>4.199497254753926</v>
+        <v>4.199497254754815</v>
       </c>
       <c r="I101" t="n">
         <v>25.13702639845252</v>
@@ -5695,16 +5695,16 @@
         <v>24.19989479699868</v>
       </c>
       <c r="K101" t="n">
-        <v>22.4134816218059</v>
+        <v>22.41348162180716</v>
       </c>
       <c r="L101" t="n">
-        <v>10.25685257828966</v>
+        <v>10.25685257829201</v>
       </c>
       <c r="M101" t="n">
-        <v>2.090881197174885</v>
+        <v>2.090881197174006</v>
       </c>
       <c r="N101" t="n">
-        <v>3.620706436137725</v>
+        <v>3.620706436136815</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003040999999939231</v>
+        <v>0.0001964000000000965</v>
       </c>
     </row>
   </sheetData>
